--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2065,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214" s="1">
-        <v>-28.841990157529306</v>
+        <v>-14.402826977539174</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="outputgap" localSheetId="0">Tabelle1!$A$1:$C$214</definedName>
+    <definedName name="outputgap_1" localSheetId="0">Tabelle1!$A$1:$B$214</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="outputgap" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\tweak\Desktop\outputgapnow.github.io\outputgap.csv" decimal="," thousands="." tab="0" semicolon="1">
+    <textPr codePage="850" sourceFile="C:\Users\tweak\Desktop\outputgapnow.github.io\outputgap.csv" decimal="," thousands="." semicolon="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="outputgap" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="outputgap_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,2366 +368,1728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>1967.25</v>
-      </c>
-      <c r="C2">
         <v>3.1217449205119299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>1967.5</v>
-      </c>
-      <c r="C3">
         <v>3.66577993668681</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>1967.75</v>
-      </c>
-      <c r="C4">
         <v>3.59515546639506</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1968</v>
       </c>
       <c r="B5">
-        <v>1968</v>
-      </c>
-      <c r="C5">
         <v>3.9271466382095799</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>1968.25</v>
-      </c>
-      <c r="C6">
         <v>4.3216774356072696</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>1968.5</v>
-      </c>
-      <c r="C7">
         <v>4.5025162051775602</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>1968.75</v>
-      </c>
-      <c r="C8">
         <v>4.7283532484367896</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>1969</v>
       </c>
       <c r="B9">
-        <v>1969</v>
-      </c>
-      <c r="C9">
         <v>4.5625069075881699</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>1969.25</v>
-      </c>
-      <c r="C10">
         <v>4.8161710635896</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>1969.5</v>
-      </c>
-      <c r="C11">
         <v>4.7381865179139098</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>1969.75</v>
-      </c>
-      <c r="C12">
         <v>4.9561278011516601</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>1970</v>
       </c>
       <c r="B13">
-        <v>1970</v>
-      </c>
-      <c r="C13">
         <v>3.6320163624337098</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>1970.25</v>
-      </c>
-      <c r="C14">
         <v>2.6912294633031699</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1970.5</v>
-      </c>
-      <c r="C15">
         <v>2.0139921291421499</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>1970.75</v>
-      </c>
-      <c r="C16">
         <v>0.67489930257233999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>1971</v>
       </c>
       <c r="B17">
-        <v>1971</v>
-      </c>
-      <c r="C17">
         <v>1.5182257736871601</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>1971.25</v>
-      </c>
-      <c r="C18">
         <v>1.5605981600486001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>1971.5</v>
-      </c>
-      <c r="C19">
         <v>1.01589798491457</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>1971.75</v>
-      </c>
-      <c r="C20">
         <v>0.97591273937462897</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>1972</v>
       </c>
       <c r="B21">
-        <v>1972</v>
-      </c>
-      <c r="C21">
         <v>0.96944375906284896</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>1972.25</v>
-      </c>
-      <c r="C22">
         <v>1.25369019092254</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>1972.5</v>
-      </c>
-      <c r="C23">
         <v>1.1571177173289999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>1972.75</v>
-      </c>
-      <c r="C24">
         <v>1.5677526746778101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>1973</v>
       </c>
       <c r="B25">
-        <v>1973</v>
-      </c>
-      <c r="C25">
         <v>3.0189354651204199</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>1973.25</v>
-      </c>
-      <c r="C26">
         <v>3.4006461664701502</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>1973.5</v>
-      </c>
-      <c r="C27">
         <v>3.3555989001693201</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>1973.75</v>
-      </c>
-      <c r="C28">
         <v>3.2750078591151399</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>1974</v>
       </c>
       <c r="B29">
-        <v>1974</v>
-      </c>
-      <c r="C29">
         <v>2.69969465134354</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>1974.25</v>
-      </c>
-      <c r="C30">
         <v>2.4770241864704801</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1974.5</v>
-      </c>
-      <c r="C31">
         <v>1.88966125065737</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>1974.75</v>
-      </c>
-      <c r="C32">
         <v>6.8311422782629796E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>1975</v>
       </c>
       <c r="B33">
-        <v>1975</v>
-      </c>
-      <c r="C33">
         <v>-2.9064096154585899</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>1975.25</v>
-      </c>
-      <c r="C34">
         <v>-3.9352288789090499</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>1975.5</v>
-      </c>
-      <c r="C35">
         <v>-3.4686056527668399</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>1975.75</v>
-      </c>
-      <c r="C36">
         <v>-2.9557038037216201</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>1976</v>
       </c>
       <c r="B37">
-        <v>1976</v>
-      </c>
-      <c r="C37">
         <v>-2.4026012081856898</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>1976.25</v>
-      </c>
-      <c r="C38">
         <v>-1.9936172973028701</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>1976.5</v>
-      </c>
-      <c r="C39">
         <v>-2.4132514008579098</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>1976.75</v>
-      </c>
-      <c r="C40">
         <v>-2.6596875728361602</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>1977</v>
       </c>
       <c r="B41">
-        <v>1977</v>
-      </c>
-      <c r="C41">
         <v>-2.6664225666895298</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>1977.25</v>
-      </c>
-      <c r="C42">
         <v>-2.0015745395454099</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>1977.5</v>
-      </c>
-      <c r="C43">
         <v>-1.5229363699876799</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>1977.75</v>
-      </c>
-      <c r="C44">
         <v>-0.924680641736364</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>1978</v>
       </c>
       <c r="B45">
-        <v>1978</v>
-      </c>
-      <c r="C45">
         <v>-0.73287709263073397</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
+        <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>1978.25</v>
-      </c>
-      <c r="C46">
         <v>-3.8379357578999201E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>1978.5</v>
-      </c>
-      <c r="C47">
         <v>0.22336011412045201</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>46</v>
+        <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1978.75</v>
-      </c>
-      <c r="C48">
         <v>0.49768231277376102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>47</v>
+        <v>1979</v>
       </c>
       <c r="B49">
-        <v>1979</v>
-      </c>
-      <c r="C49">
         <v>0.20473156482878599</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>48</v>
+        <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1979.25</v>
-      </c>
-      <c r="C50">
         <v>0.27505186548202298</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>1979.5</v>
-      </c>
-      <c r="C51">
         <v>0.249984392217528</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>1979.75</v>
-      </c>
-      <c r="C52">
         <v>-0.12884351334178001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>1980</v>
       </c>
       <c r="B53">
-        <v>1980</v>
-      </c>
-      <c r="C53">
         <v>-0.66408845792400495</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>1980.25</v>
-      </c>
-      <c r="C54">
         <v>-2.6856129030929199</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>1980.5</v>
-      </c>
-      <c r="C55">
         <v>-3.9078726907999402</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>1980.75</v>
-      </c>
-      <c r="C56">
         <v>-2.7041204818636002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>1981</v>
       </c>
       <c r="B57">
-        <v>1981</v>
-      </c>
-      <c r="C57">
         <v>-2.1835412120195898</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>1981.25</v>
-      </c>
-      <c r="C58">
         <v>-2.7332194963146299</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>1981.5</v>
-      </c>
-      <c r="C59">
         <v>-2.6153856694562698</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>1981.75</v>
-      </c>
-      <c r="C60">
         <v>-3.7280584492712601</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>1982</v>
       </c>
       <c r="B61">
-        <v>1982</v>
-      </c>
-      <c r="C61">
         <v>-4.5970227534724302</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>1982.25</v>
-      </c>
-      <c r="C62">
         <v>-5.1006974384943202</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>1982.5</v>
-      </c>
-      <c r="C63">
         <v>-6.1577650646407598</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>1982.75</v>
-      </c>
-      <c r="C64">
         <v>-7.0304554974207703</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>1983</v>
       </c>
       <c r="B65">
-        <v>1983</v>
-      </c>
-      <c r="C65">
         <v>-5.9647924014370401</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>64</v>
+        <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>1983.25</v>
-      </c>
-      <c r="C66">
         <v>-6.2955487391306901</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>65</v>
+        <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>1983.5</v>
-      </c>
-      <c r="C67">
         <v>-5.2021467125123699</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>1983.75</v>
-      </c>
-      <c r="C68">
         <v>-3.8156582184027599</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>1984</v>
       </c>
       <c r="B69">
-        <v>1984</v>
-      </c>
-      <c r="C69">
         <v>-3.42644201612775</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>1984.25</v>
-      </c>
-      <c r="C70">
         <v>-2.9883749813335299</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>1984.5</v>
-      </c>
-      <c r="C71">
         <v>-3.4868138293514401</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>1984.75</v>
-      </c>
-      <c r="C72">
         <v>-2.99988939541905</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>1985</v>
       </c>
       <c r="B73">
-        <v>1985</v>
-      </c>
-      <c r="C73">
         <v>-2.6069623518107701</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>1985.25</v>
-      </c>
-      <c r="C74">
         <v>-2.7142459529705398</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>1985.5</v>
-      </c>
-      <c r="C75">
         <v>-2.4315938991020301</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>1985.75</v>
-      </c>
-      <c r="C76">
         <v>-2.3214678835881002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>1986</v>
       </c>
       <c r="B77">
-        <v>1986</v>
-      </c>
-      <c r="C77">
         <v>-2.2971131074700502</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>1986.25</v>
-      </c>
-      <c r="C78">
         <v>-2.4291440187464199</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>1986.5</v>
-      </c>
-      <c r="C79">
         <v>-2.39959038122548</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>1986.75</v>
-      </c>
-      <c r="C80">
         <v>-2.0973830876962398</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>1987</v>
       </c>
       <c r="B81">
-        <v>1987</v>
-      </c>
-      <c r="C81">
         <v>-1.28674765235546</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>1987.25</v>
-      </c>
-      <c r="C82">
         <v>-0.74007507514403104</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>1987.5</v>
-      </c>
-      <c r="C83">
         <v>-0.29719638377579899</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>1987.75</v>
-      </c>
-      <c r="C84">
         <v>0.39413841038386999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>1988</v>
       </c>
       <c r="B85">
-        <v>1988</v>
-      </c>
-      <c r="C85">
         <v>9.9861070260298598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>1988.25</v>
-      </c>
-      <c r="C86">
         <v>0.29122093015720901</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>85</v>
+        <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>1988.5</v>
-      </c>
-      <c r="C87">
         <v>0.10035339818748</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>86</v>
+        <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>1988.75</v>
-      </c>
-      <c r="C88">
         <v>0.55683768681500301</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>87</v>
+        <v>1989</v>
       </c>
       <c r="B89">
-        <v>1989</v>
-      </c>
-      <c r="C89">
         <v>0.56185035472850997</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>88</v>
+        <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>1989.25</v>
-      </c>
-      <c r="C90">
         <v>0.38443880240563999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>1989.5</v>
-      </c>
-      <c r="C91">
         <v>-2.2426477785664201E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>1989.75</v>
-      </c>
-      <c r="C92">
         <v>-0.35224234576670599</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>1990</v>
       </c>
       <c r="B93">
-        <v>1990</v>
-      </c>
-      <c r="C93">
         <v>-0.29197120584721897</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>1990.25</v>
-      </c>
-      <c r="C94">
         <v>-9.8732603861562102E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>1990.5</v>
-      </c>
-      <c r="C95">
         <v>0.308654730960711</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>1990.75</v>
-      </c>
-      <c r="C96">
         <v>-1.49721904285637E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>95</v>
+        <v>1991</v>
       </c>
       <c r="B97">
-        <v>1991</v>
-      </c>
-      <c r="C97">
         <v>-1.1890886816477599</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>96</v>
+        <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>1991.25</v>
-      </c>
-      <c r="C98">
         <v>-1.42850661780156</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97</v>
+        <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>1991.5</v>
-      </c>
-      <c r="C99">
         <v>-1.03822494759203</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>1991.75</v>
-      </c>
-      <c r="C100">
         <v>-0.69792383059062901</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>99</v>
+        <v>1992</v>
       </c>
       <c r="B101">
-        <v>1992</v>
-      </c>
-      <c r="C101">
         <v>-0.71978661027026702</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>1992.25</v>
-      </c>
-      <c r="C102">
         <v>-0.99552107841550597</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>101</v>
+        <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>1992.5</v>
-      </c>
-      <c r="C103">
         <v>-0.66674173292984296</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>102</v>
+        <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>1992.75</v>
-      </c>
-      <c r="C104">
         <v>-0.56026303858947002</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>1993</v>
       </c>
       <c r="B105">
-        <v>1993</v>
-      </c>
-      <c r="C105">
         <v>6.3431958676529704E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>1993.25</v>
-      </c>
-      <c r="C106">
         <v>0.13267604112141501</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>1993.5</v>
-      </c>
-      <c r="C107">
         <v>0.62221956881969298</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>1993.75</v>
-      </c>
-      <c r="C108">
         <v>0.26008176476561801</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>1994</v>
       </c>
       <c r="B109">
-        <v>1994</v>
-      </c>
-      <c r="C109">
         <v>-0.43509913798710498</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>1994.25</v>
-      </c>
-      <c r="C110">
         <v>-9.8659502897757698E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>109</v>
+        <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>1994.5</v>
-      </c>
-      <c r="C111">
         <v>0.22132501897811299</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>110</v>
+        <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>1994.75</v>
-      </c>
-      <c r="C112">
         <v>0.33422122010442401</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>111</v>
+        <v>1995</v>
       </c>
       <c r="B113">
-        <v>1995</v>
-      </c>
-      <c r="C113">
         <v>0.52826703761092997</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>112</v>
+        <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>1995.25</v>
-      </c>
-      <c r="C114">
         <v>-4.46182668543793E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>113</v>
+        <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>1995.5</v>
-      </c>
-      <c r="C115">
         <v>-0.35994338475754301</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>114</v>
+        <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>1995.75</v>
-      </c>
-      <c r="C116">
         <v>-0.24151921803409099</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>1996</v>
       </c>
       <c r="B117">
-        <v>1996</v>
-      </c>
-      <c r="C117">
         <v>-0.33266113352588</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>1996.25</v>
-      </c>
-      <c r="C118">
         <v>-9.0413553561985396E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>1996.5</v>
-      </c>
-      <c r="C119">
         <v>0.182381904510275</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>1996.75</v>
-      </c>
-      <c r="C120">
         <v>-4.2084531755826E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>1997</v>
       </c>
       <c r="B121">
-        <v>1997</v>
-      </c>
-      <c r="C121">
         <v>2.13653885948961E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>1997.25</v>
-      </c>
-      <c r="C122">
         <v>-5.5512003547253299E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>1997.5</v>
-      </c>
-      <c r="C123">
         <v>-0.17179571604927199</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1997.75</v>
-      </c>
-      <c r="C124">
         <v>0.14700842385870699</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>123</v>
+        <v>1998</v>
       </c>
       <c r="B125">
-        <v>1998</v>
-      </c>
-      <c r="C125">
         <v>-3.6127117898632197E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>124</v>
+        <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1998.25</v>
-      </c>
-      <c r="C126">
         <v>6.6443778686764404E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1998.5</v>
-      </c>
-      <c r="C127">
         <v>0.19929281405825999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>1998.75</v>
-      </c>
-      <c r="C128">
         <v>0.144522464980023</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>127</v>
+        <v>1999</v>
       </c>
       <c r="B129">
-        <v>1999</v>
-      </c>
-      <c r="C129">
         <v>0.22289788661582399</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>128</v>
+        <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1999.25</v>
-      </c>
-      <c r="C130">
         <v>0.43197625799151701</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>129</v>
+        <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1999.5</v>
-      </c>
-      <c r="C131">
         <v>0.77166750734176603</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>130</v>
+        <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1999.75</v>
-      </c>
-      <c r="C132">
         <v>0.959921609063352</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>131</v>
+        <v>2000</v>
       </c>
       <c r="B133">
-        <v>2000</v>
-      </c>
-      <c r="C133">
         <v>0.71871772044023097</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>132</v>
+        <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>2000.25</v>
-      </c>
-      <c r="C134">
         <v>1.0505716725935901</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>133</v>
+        <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>2000.5</v>
-      </c>
-      <c r="C135">
         <v>0.76640838485770801</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>134</v>
+        <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>2000.75</v>
-      </c>
-      <c r="C136">
         <v>0.649448105290795</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>135</v>
+        <v>2001</v>
       </c>
       <c r="B137">
-        <v>2001</v>
-      </c>
-      <c r="C137">
         <v>0.75587526072544697</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>136</v>
+        <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>2001.25</v>
-      </c>
-      <c r="C138">
         <v>0.52826601641586801</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>137</v>
+        <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>2001.5</v>
-      </c>
-      <c r="C139">
         <v>0.64311443856388495</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>138</v>
+        <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>2001.75</v>
-      </c>
-      <c r="C140">
         <v>-0.26536005805783902</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>139</v>
+        <v>2002</v>
       </c>
       <c r="B141">
-        <v>2002</v>
-      </c>
-      <c r="C141">
         <v>-0.832243771600227</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>140</v>
+        <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>2002.25</v>
-      </c>
-      <c r="C142">
         <v>-0.89289175654336805</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>141</v>
+        <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>2002.5</v>
-      </c>
-      <c r="C143">
         <v>-4.1484096016941502E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>142</v>
+        <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>2002.75</v>
-      </c>
-      <c r="C144">
         <v>-3.5955928318032099E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>143</v>
+        <v>2003</v>
       </c>
       <c r="B145">
-        <v>2003</v>
-      </c>
-      <c r="C145">
         <v>0.288863317569654</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>144</v>
+        <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>2003.25</v>
-      </c>
-      <c r="C146">
         <v>-0.78563881232027699</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>145</v>
+        <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>2003.5</v>
-      </c>
-      <c r="C147">
         <v>-0.60393948013344101</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>146</v>
+        <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>2003.75</v>
-      </c>
-      <c r="C148">
         <v>3.1940206501834802E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>147</v>
+        <v>2004</v>
       </c>
       <c r="B149">
-        <v>2004</v>
-      </c>
-      <c r="C149">
         <v>7.1153323082984096E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>148</v>
+        <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>2004.25</v>
-      </c>
-      <c r="C150">
         <v>0.64376876818388296</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>149</v>
+        <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>2004.5</v>
-      </c>
-      <c r="C151">
         <v>0.62309127434116895</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>150</v>
+        <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>2004.75</v>
-      </c>
-      <c r="C152">
         <v>0.68828875775868104</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>151</v>
+        <v>2005</v>
       </c>
       <c r="B153">
-        <v>2005</v>
-      </c>
-      <c r="C153">
         <v>0.97464691962629801</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>152</v>
+        <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>2005.25</v>
-      </c>
-      <c r="C154">
         <v>0.90840817352761905</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>153</v>
+        <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>2005.5</v>
-      </c>
-      <c r="C155">
         <v>1.24972411553037</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>154</v>
+        <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>2005.75</v>
-      </c>
-      <c r="C156">
         <v>1.1326688940120599</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>155</v>
+        <v>2006</v>
       </c>
       <c r="B157">
-        <v>2006</v>
-      </c>
-      <c r="C157">
         <v>1.5401235860984701</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>156</v>
+        <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2006.25</v>
-      </c>
-      <c r="C158">
         <v>1.9053151153783401</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>157</v>
+        <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>2006.5</v>
-      </c>
-      <c r="C159">
         <v>1.6303302647433899</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>158</v>
+        <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>2006.75</v>
-      </c>
-      <c r="C160">
         <v>1.17679657090432</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>159</v>
+        <v>2007</v>
       </c>
       <c r="B161">
-        <v>2007</v>
-      </c>
-      <c r="C161">
         <v>1.1004937282075</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>160</v>
+        <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>2007.25</v>
-      </c>
-      <c r="C162">
         <v>1.5370272094566699</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>161</v>
+        <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>2007.5</v>
-      </c>
-      <c r="C163">
         <v>1.64884679317744</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>162</v>
+        <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>2007.75</v>
-      </c>
-      <c r="C164">
         <v>1.7990681581704799</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>163</v>
+        <v>2008</v>
       </c>
       <c r="B165">
-        <v>2008</v>
-      </c>
-      <c r="C165">
         <v>1.8991138331130299</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2008.25</v>
-      </c>
-      <c r="C166">
         <v>2.4325786394589999</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>165</v>
+        <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>2008.5</v>
-      </c>
-      <c r="C167">
         <v>1.40517551076575</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>166</v>
+        <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>2008.75</v>
-      </c>
-      <c r="C168">
         <v>-0.96887400591048001</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>167</v>
+        <v>2009</v>
       </c>
       <c r="B169">
-        <v>2009</v>
-      </c>
-      <c r="C169">
         <v>-2.9723186860581698</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>168</v>
+        <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>2009.25</v>
-      </c>
-      <c r="C170">
         <v>-4.1335786726438402</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>169</v>
+        <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>2009.5</v>
-      </c>
-      <c r="C171">
         <v>-3.7786272062196602</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>170</v>
+        <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>2009.75</v>
-      </c>
-      <c r="C172">
         <v>-3.4114255801871698</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>171</v>
+        <v>2010</v>
       </c>
       <c r="B173">
-        <v>2010</v>
-      </c>
-      <c r="C173">
         <v>-3.4193878910709001</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>172</v>
+        <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>2010.25</v>
-      </c>
-      <c r="C174">
         <v>-2.8846679641841901</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>173</v>
+        <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>2010.5</v>
-      </c>
-      <c r="C175">
         <v>-2.5487002875683298</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>174</v>
+        <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>2010.75</v>
-      </c>
-      <c r="C176">
         <v>-2.4228777957718699</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>175</v>
+        <v>2011</v>
       </c>
       <c r="B177">
-        <v>2011</v>
-      </c>
-      <c r="C177">
         <v>-1.85757438132121</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>176</v>
+        <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>2011.25</v>
-      </c>
-      <c r="C178">
         <v>-1.77917428761348</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>177</v>
+        <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>2011.5</v>
-      </c>
-      <c r="C179">
         <v>-1.1446424993198501</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>178</v>
+        <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>2011.75</v>
-      </c>
-      <c r="C180">
         <v>-1.09749933364705</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>179</v>
+        <v>2012</v>
       </c>
       <c r="B181">
-        <v>2012</v>
-      </c>
-      <c r="C181">
         <v>-1.2296962482356999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>180</v>
+        <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>2012.25</v>
-      </c>
-      <c r="C182">
         <v>-1.37190841025787</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>181</v>
+        <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>2012.5</v>
-      </c>
-      <c r="C183">
         <v>-1.4414173250124001</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>182</v>
+        <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>2012.75</v>
-      </c>
-      <c r="C184">
         <v>-1.26102124697407</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>183</v>
+        <v>2013</v>
       </c>
       <c r="B185">
-        <v>2013</v>
-      </c>
-      <c r="C185">
         <v>-0.72331716815990899</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>184</v>
+        <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>2013.25</v>
-      </c>
-      <c r="C186">
         <v>-0.51096311740960099</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>185</v>
+        <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>2013.5</v>
-      </c>
-      <c r="C187">
         <v>8.4849172596057607E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>186</v>
+        <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>2013.75</v>
-      </c>
-      <c r="C188">
         <v>0.75281003398153201</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>187</v>
+        <v>2014</v>
       </c>
       <c r="B189">
-        <v>2014</v>
-      </c>
-      <c r="C189">
         <v>0.96362371162181903</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>188</v>
+        <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>2014.25</v>
-      </c>
-      <c r="C190">
         <v>1.62482396070684</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>189</v>
+        <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>2014.5</v>
-      </c>
-      <c r="C191">
         <v>1.93166827776307</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>190</v>
+        <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>2014.75</v>
-      </c>
-      <c r="C192">
         <v>1.6905671414536501</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>191</v>
+        <v>2015</v>
       </c>
       <c r="B193">
-        <v>2015</v>
-      </c>
-      <c r="C193">
         <v>1.5464701542621599</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>192</v>
+        <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>2015.25</v>
-      </c>
-      <c r="C194">
         <v>1.6764965808915899</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>193</v>
+        <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>2015.5</v>
-      </c>
-      <c r="C195">
         <v>1.9706055700468399</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>194</v>
+        <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>2015.75</v>
-      </c>
-      <c r="C196">
         <v>1.79691817268348</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>195</v>
+        <v>2016</v>
       </c>
       <c r="B197">
-        <v>2016</v>
-      </c>
-      <c r="C197">
         <v>1.8239827909722399</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>196</v>
+        <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>2016.25</v>
-      </c>
-      <c r="C198">
         <v>2.0218542414777301</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>197</v>
+        <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>2016.5</v>
-      </c>
-      <c r="C199">
         <v>2.45076147498912</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>198</v>
+        <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>2016.75</v>
-      </c>
-      <c r="C200">
         <v>2.4884442332342198</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>199</v>
+        <v>2017</v>
       </c>
       <c r="B201">
-        <v>2017</v>
-      </c>
-      <c r="C201">
         <v>2.8170387253167299</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>200</v>
+        <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2017.25</v>
-      </c>
-      <c r="C202">
         <v>3.0212935681556998</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>201</v>
+        <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2017.5</v>
-      </c>
-      <c r="C203">
         <v>3.1473774841236102</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>202</v>
+        <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2017.75</v>
-      </c>
-      <c r="C204">
         <v>3.0079972408547202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>203</v>
+        <v>2018</v>
       </c>
       <c r="B205">
-        <v>2018</v>
-      </c>
-      <c r="C205">
         <v>3.1953722024214302</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>204</v>
+        <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2018.25</v>
-      </c>
-      <c r="C206">
         <v>3.3182716983495699</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>205</v>
+        <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2018.5</v>
-      </c>
-      <c r="C207">
         <v>3.6166157306626499</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>206</v>
+        <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2018.75</v>
-      </c>
-      <c r="C208">
         <v>3.4894803411561899</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>207</v>
+        <v>2019</v>
       </c>
       <c r="B209">
-        <v>2019</v>
-      </c>
-      <c r="C209">
         <v>3.4712747999565199</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>208</v>
+        <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2019.25</v>
-      </c>
-      <c r="C210">
         <v>3.5102662391488701</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>209</v>
+        <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2019.5</v>
-      </c>
-      <c r="C211">
         <v>3.9494136447191601</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>210</v>
+        <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2019.75</v>
-      </c>
-      <c r="C212">
         <v>3.68717340764357</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>211</v>
+        <v>2020</v>
       </c>
       <c r="B213">
-        <v>2020</v>
-      </c>
-      <c r="C213">
         <v>1.6761107608405901</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>212</v>
+        <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>2020.25</v>
-      </c>
-      <c r="C214">
-        <v>-14.40282698</v>
+        <v>-14.24814379</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A449D85-88A3-4283-967E-3977BF8A61B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43597F7-BA9C-4F72-AB13-9C297E10FB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13884" yWindow="564" windowWidth="12972" windowHeight="14208" activeTab="1" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="33240" yWindow="1200" windowWidth="23016" windowHeight="13776" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2138,7 +2138,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3268803931338908</v>
+        <v>-8.3393001874206991</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-6.42494207045383</v>
+        <v>-4.0761074760228704</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB401C-8768-4BE9-8603-FB963D10D1F7}">
   <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43597F7-BA9C-4F72-AB13-9C297E10FB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7FE764-EC54-4F8F-9B9F-2D7C0A6748D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="1200" windowWidth="23016" windowHeight="13776" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="37512" yWindow="5400" windowWidth="24228" windowHeight="12216" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>outputgap</t>
   </si>
   <si>
     <t>Federal funds rate (%)</t>
@@ -419,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,8 +428,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>2.7563841083519098</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -440,7 +437,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7563841083519098</v>
+        <v>2.7813718542741199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -448,7 +445,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.7813718542741199</v>
+        <v>2.6001818388798199</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -456,7 +453,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.6001818388798199</v>
+        <v>2.69272213016079</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -464,7 +461,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.69272213016079</v>
+        <v>2.96268021588293</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -472,7 +469,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.96268021588293</v>
+        <v>2.9979466686999898</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -480,7 +477,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>2.9979466686999898</v>
+        <v>3.14449153706851</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -488,7 +485,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.14449153706851</v>
+        <v>3.11184201547352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -496,7 +493,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.11184201547352</v>
+        <v>3.2705362886249301</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,7 +501,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.2705362886249301</v>
+        <v>3.1695492292125298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,7 +509,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.1695492292125298</v>
+        <v>3.4566834057296001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -520,7 +517,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>3.4566834057296001</v>
+        <v>2.6717436477817298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -528,7 +525,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.6717436477817298</v>
+        <v>2.1131286839592498</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -536,7 +533,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.1131286839592498</v>
+        <v>1.1192779961452599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,7 +541,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1.1192779961452599</v>
+        <v>-0.11119504860564999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,7 +549,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>-0.11119504860564999</v>
+        <v>0.18121395332622001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +557,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.18121395332622001</v>
+        <v>0.52702316815058703</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -568,7 +565,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.52702316815058703</v>
+        <v>0.476401636734614</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -576,7 +573,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.476401636734614</v>
+        <v>0.215525056708921</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +581,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.215525056708921</v>
+        <v>5.44811208007756E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +589,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>5.44811208007756E-2</v>
+        <v>0.49088353500319498</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +597,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.49088353500319498</v>
+        <v>0.38325768764444501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +605,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.38325768764444501</v>
+        <v>0.76181327204041305</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +613,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>0.76181327204041305</v>
+        <v>2.0442958590742601</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -624,7 +621,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.0442958590742601</v>
+        <v>2.4724522471089498</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +629,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.4724522471089498</v>
+        <v>2.5589878510570201</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -640,7 +637,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.5589878510570201</v>
+        <v>2.5473669127746801</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,7 +645,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.5473669127746801</v>
+        <v>2.4308326284839601</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +653,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.4308326284839601</v>
+        <v>2.2449634077196898</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +661,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.2449634077196898</v>
+        <v>1.7855863672757899</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,7 +669,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1.7855863672757899</v>
+        <v>-0.137769952387268</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +677,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-0.137769952387268</v>
+        <v>-3.0305533089347501</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +685,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.0305533089347501</v>
+        <v>-4.1079781429811799</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +693,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1079781429811799</v>
+        <v>-3.4016599182531602</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +701,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.4016599182531602</v>
+        <v>-3.1197848432119</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +709,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1197848432119</v>
+        <v>-2.77052060694069</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -720,7 +717,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.77052060694069</v>
+        <v>-2.1395256942669501</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -728,7 +725,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.1395256942669501</v>
+        <v>-2.2904542735507398</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +733,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2904542735507398</v>
+        <v>-2.5254781104078301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,7 +741,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5254781104078301</v>
+        <v>-2.1025918703447601</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,7 +749,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1025918703447601</v>
+        <v>-1.43482786382844</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -760,7 +757,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.43482786382844</v>
+        <v>-0.80361975589675605</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,7 +765,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.80361975589675605</v>
+        <v>-0.30162836870371001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -776,7 +773,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.30162836870371001</v>
+        <v>9.7505426111421697E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -784,7 +781,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>9.7505426111421697E-2</v>
+        <v>0.60639452048090203</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -792,7 +789,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.60639452048090203</v>
+        <v>0.77712351257943602</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +797,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.77712351257943602</v>
+        <v>1.1969069515103099</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,7 +805,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.1969069515103099</v>
+        <v>1.1337591985600499</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,7 +813,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.1337591985600499</v>
+        <v>1.1353754936403999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,7 +821,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.1353754936403999</v>
+        <v>0.96238424619159402</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +829,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.96238424619159402</v>
+        <v>0.89824408809155998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +837,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.89824408809155998</v>
+        <v>0.37492518643846801</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -848,7 +845,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>0.37492518643846801</v>
+        <v>-2.0496483329669402</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -856,7 +853,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.0496483329669402</v>
+        <v>-3.13410507366588</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,7 +861,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.13410507366588</v>
+        <v>-2.0639683713758701</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -872,7 +869,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.0639683713758701</v>
+        <v>-1.8701723152542999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -880,7 +877,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.8701723152542999</v>
+        <v>-2.3596068939688899</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -888,7 +885,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.3596068939688899</v>
+        <v>-2.07421330041733</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +893,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.07421330041733</v>
+        <v>-3.63671635845667</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -904,7 +901,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.63671635845667</v>
+        <v>-4.3855349771026599</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +909,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.3855349771026599</v>
+        <v>-4.79963728011165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +917,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.79963728011165</v>
+        <v>-6.1052870364138903</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,7 +925,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.1052870364138903</v>
+        <v>-7.17326323327985</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -936,7 +933,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.17326323327985</v>
+        <v>-6.3762384163112502</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +941,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.3762384163112502</v>
+        <v>-6.2043205291223202</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -952,7 +949,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.2043205291223202</v>
+        <v>-4.7536542831766502</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -960,7 +957,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.7536542831766502</v>
+        <v>-3.5814782575058302</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,7 +965,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.5814782575058302</v>
+        <v>-3.49859523000756</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -976,7 +973,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.49859523000756</v>
+        <v>-2.7993687579337601</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +981,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.7993687579337601</v>
+        <v>-3.16475357702969</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +989,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.16475357702969</v>
+        <v>-2.5708262788092799</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +997,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.5708262788092799</v>
+        <v>-2.3250767186574</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1005,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.3250767186574</v>
+        <v>-2.5378987223295502</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1013,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.5378987223295502</v>
+        <v>-2.1844064123435198</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1024,7 +1021,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.1844064123435198</v>
+        <v>-1.95276160757679</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,7 +1029,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-1.95276160757679</v>
+        <v>-2.12147671907538</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1037,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.12147671907538</v>
+        <v>-2.3023377631058701</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1045,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.3023377631058701</v>
+        <v>-2.0392874939787999</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1053,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.0392874939787999</v>
+        <v>-1.9260078217018799</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1061,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.9260078217018799</v>
+        <v>-1.30783608012108</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1072,7 +1069,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.30783608012108</v>
+        <v>-0.83508727970341701</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1077,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.83508727970341701</v>
+        <v>-0.47229739345877603</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1085,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.47229739345877603</v>
+        <v>0.174535710599244</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,7 +1093,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.174535710599244</v>
+        <v>7.0758521463143403E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1104,7 +1101,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>7.0758521463143403E-2</v>
+        <v>0.29327559521172802</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,7 +1109,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.29327559521172802</v>
+        <v>0.230218049885966</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,7 +1117,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.230218049885966</v>
+        <v>0.53723936624690005</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1128,7 +1125,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.53723936624690005</v>
+        <v>0.82082040274429302</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,7 +1133,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.82082040274429302</v>
+        <v>0.76400627265000898</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1144,7 +1141,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.76400627265000898</v>
+        <v>0.50821045249838104</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,7 +1149,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.50821045249838104</v>
+        <v>0.25356978779835798</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1157,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.25356978779835798</v>
+        <v>0.50919616147080404</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,7 +1165,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.50919616147080404</v>
+        <v>0.60942569888027298</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1176,7 +1173,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.60942569888027298</v>
+        <v>0.74578590442797599</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1184,7 +1181,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.74578590442797599</v>
+        <v>0.63453920623013405</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1192,7 +1189,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.63453920623013405</v>
+        <v>-0.50545469305661705</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,7 +1197,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.50545469305661705</v>
+        <v>-0.77556891917679505</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1208,7 +1205,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.77556891917679505</v>
+        <v>-0.52262065285375603</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1216,7 +1213,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.52262065285375603</v>
+        <v>-0.231841564894852</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,7 +1221,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.231841564894852</v>
+        <v>-0.44369960384184098</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1232,7 +1229,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.44369960384184098</v>
+        <v>-0.85101857678994097</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1240,7 +1237,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.85101857678994097</v>
+        <v>-0.452320739690526</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1248,7 +1245,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.452320739690526</v>
+        <v>-0.74221346605729499</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1256,7 +1253,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.74221346605729499</v>
+        <v>-0.28496577153497299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,7 +1261,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-0.28496577153497299</v>
+        <v>-8.3594129786757093E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,7 +1269,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>-8.3594129786757093E-2</v>
+        <v>0.49125414520070398</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1280,7 +1277,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.49125414520070398</v>
+        <v>0.234595460653719</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1288,7 +1285,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.234595460653719</v>
+        <v>-0.18944422671928199</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1296,7 +1293,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.18944422671928199</v>
+        <v>0.34230090892908299</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1304,7 +1301,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.34230090892908299</v>
+        <v>0.673624161147379</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1312,7 +1309,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.673624161147379</v>
+        <v>0.933157431796516</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1320,7 +1317,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.933157431796516</v>
+        <v>1.2641917832470999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1328,7 +1325,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2641917832470999</v>
+        <v>0.85372947342012795</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1336,7 +1333,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.85372947342012795</v>
+        <v>0.55067967335451495</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,7 +1341,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.55067967335451495</v>
+        <v>0.76327987274753495</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1352,7 +1349,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.76327987274753495</v>
+        <v>0.763537165434647</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1360,7 +1357,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.763537165434647</v>
+        <v>0.73062247456912</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1368,7 +1365,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.73062247456912</v>
+        <v>0.85637369609352598</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1376,7 +1373,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.85637369609352598</v>
+        <v>0.68593006181136795</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1384,7 +1381,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.68593006181136795</v>
+        <v>0.70345866353917996</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1392,7 +1389,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.70345866353917996</v>
+        <v>0.76789702918642599</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1400,7 +1397,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76789702918642599</v>
+        <v>0.76719383733392399</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1408,7 +1405,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.76719383733392399</v>
+        <v>1.07327834433166</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1416,7 +1413,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1.07327834433166</v>
+        <v>0.90286424354058004</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1424,7 +1421,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>0.90286424354058004</v>
+        <v>1.13552548362237</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1432,7 +1429,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.13552548362237</v>
+        <v>1.1408003014188499</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1440,7 +1437,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.1408003014188499</v>
+        <v>0.95161601437347998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1445,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.95161601437347998</v>
+        <v>0.93800533065337999</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1456,7 +1453,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.93800533065337999</v>
+        <v>1.06895055312259</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1464,7 +1461,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.06895055312259</v>
+        <v>1.24798964090136</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1472,7 +1469,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.24798964090136</v>
+        <v>1.5015191053882899</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1480,7 +1477,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.5015191053882899</v>
+        <v>1.41794592214792</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1488,7 +1485,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.41794592214792</v>
+        <v>1.5061559162971501</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1496,7 +1493,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.5061559162971501</v>
+        <v>1.52002224765784</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1504,7 +1501,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.52002224765784</v>
+        <v>1.7398976908704</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1512,7 +1509,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.7398976908704</v>
+        <v>1.9034690797835601</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1520,7 +1517,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.9034690797835601</v>
+        <v>1.73248302823574</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1528,7 +1525,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.73248302823574</v>
+        <v>1.64863138518541</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1536,7 +1533,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>1.64863138518541</v>
+        <v>0.69118262988594503</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1544,7 +1541,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>0.69118262988594503</v>
+        <v>-0.19555857765186599</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1552,7 +1549,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.19555857765186599</v>
+        <v>-0.18835435957895699</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1560,7 +1557,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.18835435957895699</v>
+        <v>0.522867241516489</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1568,7 +1565,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.522867241516489</v>
+        <v>0.43727220039973003</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1576,7 +1573,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.43727220039973003</v>
+        <v>0.79456759436913305</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1584,7 +1581,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.79456759436913305</v>
+        <v>-8.0235256775274003E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1592,7 +1589,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-8.0235256775274003E-2</v>
+        <v>-5.7195255681297102E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1600,7 +1597,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-5.7195255681297102E-2</v>
+        <v>0.41623326804176602</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1608,7 +1605,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.41623326804176602</v>
+        <v>0.56536638436277498</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1616,7 +1613,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>0.56536638436277498</v>
+        <v>1.00645591226736</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1624,7 +1621,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.00645591226736</v>
+        <v>1.0515783970788599</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1632,7 +1629,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.0515783970788599</v>
+        <v>1.10608160100343</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1640,7 +1637,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.10608160100343</v>
+        <v>1.4586904590913701</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1648,7 +1645,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.4586904590913701</v>
+        <v>1.4403661645899599</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1656,7 +1653,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.4403661645899599</v>
+        <v>1.86769806373921</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1664,7 +1661,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.86769806373921</v>
+        <v>1.6911816039968599</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1672,7 +1669,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.6911816039968599</v>
+        <v>1.78730315040598</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1680,7 +1677,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.78730315040598</v>
+        <v>2.2089538582435102</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1688,7 +1685,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.2089538582435102</v>
+        <v>2.02196046348317</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1696,7 +1693,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>2.02196046348317</v>
+        <v>1.7633302657821499</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1704,7 +1701,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.7633302657821499</v>
+        <v>1.63058404911012</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1712,7 +1709,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.63058404911012</v>
+        <v>1.88789934068641</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1720,7 +1717,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.88789934068641</v>
+        <v>1.8453658457575</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1728,7 +1725,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.8453658457575</v>
+        <v>1.99301497662925</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1736,7 +1733,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.99301497662925</v>
+        <v>1.7840371305834799</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1744,7 +1741,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.7840371305834799</v>
+        <v>2.1285026670542</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1752,7 +1749,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.1285026670542</v>
+        <v>1.37317764862888</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1760,7 +1757,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.37317764862888</v>
+        <v>-1.3126301340392701</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1768,7 +1765,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.3126301340392701</v>
+        <v>-3.16409895687165</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1776,7 +1773,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.16409895687165</v>
+        <v>-4.2912962223982101</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1784,7 +1781,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.2912962223982101</v>
+        <v>-3.8785776317548</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1792,7 +1789,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.8785776317548</v>
+        <v>-3.7216079272685398</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.7216079272685398</v>
+        <v>-3.61458887260022</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1808,7 +1805,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.61458887260022</v>
+        <v>-3.1116954859624002</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1816,7 +1813,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-3.1116954859624002</v>
+        <v>-2.7363101034744899</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1824,7 +1821,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.7363101034744899</v>
+        <v>-2.8386683898906302</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1832,7 +1829,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.8386683898906302</v>
+        <v>-2.3967520175438501</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1840,7 +1837,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.3967520175438501</v>
+        <v>-2.1400751953820198</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1848,7 +1845,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-2.1400751953820198</v>
+        <v>-1.57794792154478</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1856,7 +1853,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.57794792154478</v>
+        <v>-1.66664425218942</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1864,7 +1861,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.66664425218942</v>
+        <v>-1.86536313022443</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -1872,7 +1869,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.86536313022443</v>
+        <v>-2.0111017737299699</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -1880,7 +1877,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-2.0111017737299699</v>
+        <v>-1.9832378812449101</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -1888,7 +1885,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.9832378812449101</v>
+        <v>-1.6149352346177599</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -1896,7 +1893,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.6149352346177599</v>
+        <v>-1.2880128979372201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1904,7 +1901,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.2880128979372201</v>
+        <v>-1.0945564175305</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -1912,7 +1909,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-1.0945564175305</v>
+        <v>-0.69868492598479404</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -1920,7 +1917,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.69868492598479404</v>
+        <v>0.18336054016303599</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,7 +1925,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.18336054016303599</v>
+        <v>0.420487789053547</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -1936,7 +1933,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.420487789053547</v>
+        <v>1.246325657923</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -1944,7 +1941,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.246325657923</v>
+        <v>1.3863704429591699</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1952,7 +1949,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.3863704429591699</v>
+        <v>1.0627735190220899</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -1960,7 +1957,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.0627735190220899</v>
+        <v>0.98296122068108904</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1968,7 +1965,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>0.98296122068108904</v>
+        <v>0.91357568683143597</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -1976,7 +1973,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>0.91357568683143597</v>
+        <v>1.15833767692217</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -1984,7 +1981,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.15833767692217</v>
+        <v>0.87418633899927201</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -1992,7 +1989,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.87418633899927201</v>
+        <v>0.99962925276013703</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2000,7 +1997,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>0.99962925276013703</v>
+        <v>1.21253063744866</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2008,7 +2005,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.21253063744866</v>
+        <v>1.5862935779543901</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2016,7 +2013,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.5862935779543901</v>
+        <v>1.48509865345603</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2024,7 +2021,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.48509865345603</v>
+        <v>1.8050772894373299</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2032,7 +2029,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>1.8050772894373299</v>
+        <v>2.1574121503278998</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2040,7 +2037,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.1574121503278998</v>
+        <v>2.4036976107139298</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2048,7 +2045,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.4036976107139298</v>
+        <v>2.2423035697299598</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2056,7 +2053,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2423035697299598</v>
+        <v>2.2264739020057198</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2064,7 +2061,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.2264739020057198</v>
+        <v>2.25246018326835</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2072,7 +2069,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.25246018326835</v>
+        <v>2.3517038435394699</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2080,7 +2077,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.3517038435394699</v>
+        <v>2.2168000962363501</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2088,7 +2085,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.2168000962363501</v>
+        <v>2.1586300568044101</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2096,7 +2093,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.1586300568044101</v>
+        <v>2.2301377869204901</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2104,7 +2101,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.2301377869204901</v>
+        <v>2.6791145329735602</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2112,7 +2109,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.6791145329735602</v>
+        <v>2.4709501841203099</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2120,7 +2117,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.4709501841203099</v>
+        <v>2.43191015059667</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2129,16 +2126,16 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>2.43191015059667</v>
+        <v>-8.3393001874207098</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <f t="shared" ref="A214:A215" si="0">A213+0.25</f>
+        <f t="shared" ref="A214:A216" si="0">A213+0.25</f>
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3393001874206991</v>
+        <v>-3.89631759750909</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2144,16 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-4.0761074760228704</v>
+        <v>-2.4712380521851798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <f t="shared" si="0"/>
+        <v>2020.75</v>
+      </c>
+      <c r="B216">
+        <v>-2.4481718640538799</v>
       </c>
     </row>
   </sheetData>
@@ -2170,18 +2176,18 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0.09</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0.47</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1.17</v>
@@ -2205,7 +2211,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5.36</v>
@@ -2213,7 +2219,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>72.5</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>10.199999999999999</v>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.59</v>
@@ -2237,7 +2243,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2.74</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7FE764-EC54-4F8F-9B9F-2D7C0A6748D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E116E9-6CEE-4AE9-B4ED-F5349F2C4745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37512" yWindow="5400" windowWidth="24228" windowHeight="12216" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="10392" yWindow="2004" windowWidth="25224" windowHeight="14052" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B215"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,16 +428,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2.7563841083519098</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7813718542741199</v>
+        <v>2.7563841083519098</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -445,7 +442,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.6001818388798199</v>
+        <v>2.7813718542741199</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +450,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.69272213016079</v>
+        <v>2.6001818388798199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +458,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.96268021588293</v>
+        <v>2.69272213016079</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +466,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.9979466686999898</v>
+        <v>2.96268021588293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +474,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>3.14449153706851</v>
+        <v>2.9979466686999898</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +482,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.11184201547352</v>
+        <v>3.14449153706851</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +490,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.2705362886249301</v>
+        <v>3.11184201547352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +498,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.1695492292125298</v>
+        <v>3.2705362886249301</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +506,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.4566834057296001</v>
+        <v>3.1695492292125298</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +514,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>2.6717436477817298</v>
+        <v>3.4566834057296001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +522,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.1131286839592498</v>
+        <v>2.6717436477817298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +530,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>1.1192779961452599</v>
+        <v>2.1131286839592498</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +538,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>-0.11119504860564999</v>
+        <v>1.1192779961452599</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +546,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>0.18121395332622001</v>
+        <v>-0.11119504860564999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +554,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.52702316815058703</v>
+        <v>0.18121395332622001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +562,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.476401636734614</v>
+        <v>0.52702316815058703</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +570,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.215525056708921</v>
+        <v>0.476401636734614</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +578,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>5.44811208007756E-2</v>
+        <v>0.215525056708921</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +586,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>0.49088353500319498</v>
+        <v>5.44811208007756E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,7 +594,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.38325768764444501</v>
+        <v>0.49088353500319498</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +602,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.76181327204041305</v>
+        <v>0.38325768764444501</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +610,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>2.0442958590742601</v>
+        <v>0.76181327204041305</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,7 +618,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.4724522471089498</v>
+        <v>2.0442958590742601</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,7 +626,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.5589878510570201</v>
+        <v>2.4724522471089498</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -637,7 +634,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.5473669127746801</v>
+        <v>2.5589878510570201</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,7 +642,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.4308326284839601</v>
+        <v>2.5473669127746801</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +650,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.2449634077196898</v>
+        <v>2.4308326284839601</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,7 +658,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>1.7855863672757899</v>
+        <v>2.2449634077196898</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,7 +666,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>-0.137769952387268</v>
+        <v>1.7855863672757899</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -677,7 +674,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-3.0305533089347501</v>
+        <v>-0.137769952387268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -685,7 +682,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-4.1079781429811799</v>
+        <v>-3.0305533089347501</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,7 +690,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-3.4016599182531602</v>
+        <v>-4.1079781429811799</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +698,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.1197848432119</v>
+        <v>-3.4016599182531602</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +706,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-2.77052060694069</v>
+        <v>-3.1197848432119</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +714,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.1395256942669501</v>
+        <v>-2.77052060694069</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +722,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.2904542735507398</v>
+        <v>-2.1395256942669501</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,7 +730,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.5254781104078301</v>
+        <v>-2.2904542735507398</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +738,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.1025918703447601</v>
+        <v>-2.5254781104078301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,7 +746,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-1.43482786382844</v>
+        <v>-2.1025918703447601</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +754,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-0.80361975589675605</v>
+        <v>-1.43482786382844</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +762,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.30162836870371001</v>
+        <v>-0.80361975589675605</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +770,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>9.7505426111421697E-2</v>
+        <v>-0.30162836870371001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +778,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>0.60639452048090203</v>
+        <v>9.7505426111421697E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +786,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.77712351257943602</v>
+        <v>0.60639452048090203</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +794,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>1.1969069515103099</v>
+        <v>0.77712351257943602</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +802,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.1337591985600499</v>
+        <v>1.1969069515103099</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +810,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.1353754936403999</v>
+        <v>1.1337591985600499</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +818,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>0.96238424619159402</v>
+        <v>1.1353754936403999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,7 +826,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.89824408809155998</v>
+        <v>0.96238424619159402</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +834,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.37492518643846801</v>
+        <v>0.89824408809155998</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +842,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>-2.0496483329669402</v>
+        <v>0.37492518643846801</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +850,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-3.13410507366588</v>
+        <v>-2.0496483329669402</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +858,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-2.0639683713758701</v>
+        <v>-3.13410507366588</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +866,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-1.8701723152542999</v>
+        <v>-2.0639683713758701</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -877,7 +874,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-2.3596068939688899</v>
+        <v>-1.8701723152542999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +882,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.07421330041733</v>
+        <v>-2.3596068939688899</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +890,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-3.63671635845667</v>
+        <v>-2.07421330041733</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +898,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-4.3855349771026599</v>
+        <v>-3.63671635845667</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +906,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.79963728011165</v>
+        <v>-4.3855349771026599</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +914,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-6.1052870364138903</v>
+        <v>-4.79963728011165</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,7 +922,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-7.17326323327985</v>
+        <v>-6.1052870364138903</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,7 +930,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-6.3762384163112502</v>
+        <v>-7.17326323327985</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -941,7 +938,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.2043205291223202</v>
+        <v>-6.3762384163112502</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,7 +946,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-4.7536542831766502</v>
+        <v>-6.2043205291223202</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,7 +954,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-3.5814782575058302</v>
+        <v>-4.7536542831766502</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -965,7 +962,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.49859523000756</v>
+        <v>-3.5814782575058302</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,7 +970,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-2.7993687579337601</v>
+        <v>-3.49859523000756</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +978,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-3.16475357702969</v>
+        <v>-2.7993687579337601</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +986,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-2.5708262788092799</v>
+        <v>-3.16475357702969</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,7 +994,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.3250767186574</v>
+        <v>-2.5708262788092799</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1005,7 +1002,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.5378987223295502</v>
+        <v>-2.3250767186574</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1010,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.1844064123435198</v>
+        <v>-2.5378987223295502</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1021,7 +1018,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-1.95276160757679</v>
+        <v>-2.1844064123435198</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1026,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-2.12147671907538</v>
+        <v>-1.95276160757679</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1037,7 +1034,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.3023377631058701</v>
+        <v>-2.12147671907538</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1042,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.0392874939787999</v>
+        <v>-2.3023377631058701</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-1.9260078217018799</v>
+        <v>-2.0392874939787999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1058,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.30783608012108</v>
+        <v>-1.9260078217018799</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1066,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-0.83508727970341701</v>
+        <v>-1.30783608012108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1074,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.47229739345877603</v>
+        <v>-0.83508727970341701</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1082,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>0.174535710599244</v>
+        <v>-0.47229739345877603</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1090,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>7.0758521463143403E-2</v>
+        <v>0.174535710599244</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1098,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>0.29327559521172802</v>
+        <v>7.0758521463143403E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1106,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.230218049885966</v>
+        <v>0.29327559521172802</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1114,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.53723936624690005</v>
+        <v>0.230218049885966</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,7 +1122,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.82082040274429302</v>
+        <v>0.53723936624690005</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1130,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.76400627265000898</v>
+        <v>0.82082040274429302</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1138,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.50821045249838104</v>
+        <v>0.76400627265000898</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1146,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.25356978779835798</v>
+        <v>0.50821045249838104</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1154,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.50919616147080404</v>
+        <v>0.25356978779835798</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1162,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.60942569888027298</v>
+        <v>0.50919616147080404</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1170,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.74578590442797599</v>
+        <v>0.60942569888027298</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.63453920623013405</v>
+        <v>0.74578590442797599</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1186,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>-0.50545469305661705</v>
+        <v>0.63453920623013405</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1194,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.77556891917679505</v>
+        <v>-0.50545469305661705</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1202,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.52262065285375603</v>
+        <v>-0.77556891917679505</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1210,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.231841564894852</v>
+        <v>-0.52262065285375603</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1221,7 +1218,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.44369960384184098</v>
+        <v>-0.231841564894852</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1226,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.85101857678994097</v>
+        <v>-0.44369960384184098</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1234,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.452320739690526</v>
+        <v>-0.85101857678994097</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1242,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.74221346605729499</v>
+        <v>-0.452320739690526</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,7 +1250,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.28496577153497299</v>
+        <v>-0.74221346605729499</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1261,7 +1258,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-8.3594129786757093E-2</v>
+        <v>-0.28496577153497299</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1266,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>0.49125414520070398</v>
+        <v>-8.3594129786757093E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1274,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.234595460653719</v>
+        <v>0.49125414520070398</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1285,7 +1282,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>-0.18944422671928199</v>
+        <v>0.234595460653719</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,7 +1290,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>0.34230090892908299</v>
+        <v>-0.18944422671928199</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1301,7 +1298,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.673624161147379</v>
+        <v>0.34230090892908299</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1306,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.933157431796516</v>
+        <v>0.673624161147379</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,7 +1314,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>1.2641917832470999</v>
+        <v>0.933157431796516</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1325,7 +1322,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>0.85372947342012795</v>
+        <v>1.2641917832470999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,7 +1330,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.55067967335451495</v>
+        <v>0.85372947342012795</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1341,7 +1338,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.76327987274753495</v>
+        <v>0.55067967335451495</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,7 +1346,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.763537165434647</v>
+        <v>0.76327987274753495</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1357,7 +1354,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.73062247456912</v>
+        <v>0.763537165434647</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,7 +1362,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.85637369609352598</v>
+        <v>0.73062247456912</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1370,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.68593006181136795</v>
+        <v>0.85637369609352598</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1378,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.70345866353917996</v>
+        <v>0.68593006181136795</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1386,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.76789702918642599</v>
+        <v>0.70345866353917996</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1394,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76719383733392399</v>
+        <v>0.76789702918642599</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1402,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>1.07327834433166</v>
+        <v>0.76719383733392399</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1413,7 +1410,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>0.90286424354058004</v>
+        <v>1.07327834433166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,7 +1418,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>1.13552548362237</v>
+        <v>0.90286424354058004</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1429,7 +1426,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.1408003014188499</v>
+        <v>1.13552548362237</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1437,7 +1434,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>0.95161601437347998</v>
+        <v>1.1408003014188499</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1445,7 +1442,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.93800533065337999</v>
+        <v>0.95161601437347998</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1453,7 +1450,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>1.06895055312259</v>
+        <v>0.93800533065337999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +1458,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.24798964090136</v>
+        <v>1.06895055312259</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +1466,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.5015191053882899</v>
+        <v>1.24798964090136</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,7 +1474,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.41794592214792</v>
+        <v>1.5015191053882899</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1485,7 +1482,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.5061559162971501</v>
+        <v>1.41794592214792</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1493,7 +1490,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.52002224765784</v>
+        <v>1.5061559162971501</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1501,7 +1498,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.7398976908704</v>
+        <v>1.52002224765784</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,7 +1506,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.9034690797835601</v>
+        <v>1.7398976908704</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1517,7 +1514,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.73248302823574</v>
+        <v>1.9034690797835601</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1525,7 +1522,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.64863138518541</v>
+        <v>1.73248302823574</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1533,7 +1530,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>0.69118262988594503</v>
+        <v>1.64863138518541</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1541,7 +1538,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>-0.19555857765186599</v>
+        <v>0.69118262988594503</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1546,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.18835435957895699</v>
+        <v>-0.19555857765186599</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,7 +1554,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>0.522867241516489</v>
+        <v>-0.18835435957895699</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1562,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.43727220039973003</v>
+        <v>0.522867241516489</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,7 +1570,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.79456759436913305</v>
+        <v>0.43727220039973003</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1581,7 +1578,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>-8.0235256775274003E-2</v>
+        <v>0.79456759436913305</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1589,7 +1586,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-5.7195255681297102E-2</v>
+        <v>-8.0235256775274003E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1594,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>0.41623326804176602</v>
+        <v>-5.7195255681297102E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1602,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.56536638436277498</v>
+        <v>0.41623326804176602</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1610,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>1.00645591226736</v>
+        <v>0.56536638436277498</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1621,7 +1618,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.0515783970788599</v>
+        <v>1.00645591226736</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1629,7 +1626,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.10608160100343</v>
+        <v>1.0515783970788599</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1637,7 +1634,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.4586904590913701</v>
+        <v>1.10608160100343</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +1642,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.4403661645899599</v>
+        <v>1.4586904590913701</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +1650,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.86769806373921</v>
+        <v>1.4403661645899599</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.6911816039968599</v>
+        <v>1.86769806373921</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1666,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.78730315040598</v>
+        <v>1.6911816039968599</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1674,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>2.2089538582435102</v>
+        <v>1.78730315040598</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1682,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.02196046348317</v>
+        <v>2.2089538582435102</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1693,7 +1690,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>1.7633302657821499</v>
+        <v>2.02196046348317</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1698,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.63058404911012</v>
+        <v>1.7633302657821499</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1709,7 +1706,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.88789934068641</v>
+        <v>1.63058404911012</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1717,7 +1714,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.8453658457575</v>
+        <v>1.88789934068641</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1725,7 +1722,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.99301497662925</v>
+        <v>1.8453658457575</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,7 +1730,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.7840371305834799</v>
+        <v>1.99301497662925</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1741,7 +1738,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>2.1285026670542</v>
+        <v>1.7840371305834799</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1749,7 +1746,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>1.37317764862888</v>
+        <v>2.1285026670542</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1757,7 +1754,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>-1.3126301340392701</v>
+        <v>1.37317764862888</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,7 +1762,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-3.16409895687165</v>
+        <v>-1.3126301340392701</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,7 +1770,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-4.2912962223982101</v>
+        <v>-3.16409895687165</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +1778,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-3.8785776317548</v>
+        <v>-4.2912962223982101</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1789,7 +1786,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.7216079272685398</v>
+        <v>-3.8785776317548</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1797,7 +1794,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.61458887260022</v>
+        <v>-3.7216079272685398</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1802,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.1116954859624002</v>
+        <v>-3.61458887260022</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1810,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-2.7363101034744899</v>
+        <v>-3.1116954859624002</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1818,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.8386683898906302</v>
+        <v>-2.7363101034744899</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1826,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.3967520175438501</v>
+        <v>-2.8386683898906302</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1834,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.1400751953820198</v>
+        <v>-2.3967520175438501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1842,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-1.57794792154478</v>
+        <v>-2.1400751953820198</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1853,7 +1850,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.66664425218942</v>
+        <v>-1.57794792154478</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1861,7 +1858,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.86536313022443</v>
+        <v>-1.66664425218942</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-2.0111017737299699</v>
+        <v>-1.86536313022443</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -1877,7 +1874,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-1.9832378812449101</v>
+        <v>-2.0111017737299699</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -1885,7 +1882,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.6149352346177599</v>
+        <v>-1.9832378812449101</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1890,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.2880128979372201</v>
+        <v>-1.6149352346177599</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1901,7 +1898,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.0945564175305</v>
+        <v>-1.2880128979372201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1906,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-0.69868492598479404</v>
+        <v>-1.0945564175305</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,7 +1914,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>0.18336054016303599</v>
+        <v>-0.69868492598479404</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1922,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.420487789053547</v>
+        <v>0.18336054016303599</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1930,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>1.246325657923</v>
+        <v>0.420487789053547</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1938,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.3863704429591699</v>
+        <v>1.246325657923</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1946,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.0627735190220899</v>
+        <v>1.3863704429591699</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1954,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>0.98296122068108904</v>
+        <v>1.0627735190220899</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1962,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>0.91357568683143597</v>
+        <v>0.98296122068108904</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1970,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>1.15833767692217</v>
+        <v>0.91357568683143597</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1978,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>0.87418633899927201</v>
+        <v>1.15833767692217</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,7 +1986,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.99962925276013703</v>
+        <v>0.87418633899927201</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +1994,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.21253063744866</v>
+        <v>0.99962925276013703</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2002,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.5862935779543901</v>
+        <v>1.21253063744866</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2010,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.48509865345603</v>
+        <v>1.5862935779543901</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2018,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.8050772894373299</v>
+        <v>1.48509865345603</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +2026,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>2.1574121503278998</v>
+        <v>1.8050772894373299</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2037,7 +2034,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.4036976107139298</v>
+        <v>2.1574121503278998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2042,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.2423035697299598</v>
+        <v>2.4036976107139298</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2050,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2264739020057198</v>
+        <v>2.2423035697299598</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,7 +2058,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.25246018326835</v>
+        <v>2.2264739020057198</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2066,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.3517038435394699</v>
+        <v>2.25246018326835</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2074,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.2168000962363501</v>
+        <v>2.3517038435394699</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,7 +2082,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.1586300568044101</v>
+        <v>2.2168000962363501</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2090,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.2301377869204901</v>
+        <v>2.1586300568044101</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2101,7 +2098,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.6791145329735602</v>
+        <v>2.2301377869204901</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,7 +2106,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.4709501841203099</v>
+        <v>2.6791145329735602</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2117,7 +2114,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.43191015059667</v>
+        <v>2.4709501841203099</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2123,7 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>-8.3393001874207098</v>
+        <v>2.4278763435280801</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2135,7 +2132,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-3.89631759750909</v>
+        <v>-8.3567981485223193</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2144,7 +2141,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-2.4712380521851798</v>
+        <v>-3.5274958329713901</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2153,7 +2150,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-2.4481718640538799</v>
+        <v>-2.8785517655382402</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E116E9-6CEE-4AE9-B4ED-F5349F2C4745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FC6C4-92F3-4138-8522-9063EB211AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="2004" windowWidth="25224" windowHeight="14052" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="38892" yWindow="924" windowWidth="22464" windowHeight="14220" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C216"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2132,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3567981485223193</v>
+        <v>-8.3732859785805793</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2141,7 +2141,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5274958329713901</v>
+        <v>-3.5229996118123901</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-2.8785517655382402</v>
+        <v>-2.89622361396549</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FC6C4-92F3-4138-8522-9063EB211AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A05EA-B5B8-4FF2-BCB5-422345F61D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38892" yWindow="924" windowWidth="22464" windowHeight="14220" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17820" windowHeight="15324" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2132,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3732859785805793</v>
+        <v>-8.3732859785805704</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-2.89622361396549</v>
+        <v>-1.0121051652161399</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A05EA-B5B8-4FF2-BCB5-422345F61D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A6EF8-4853-408A-865A-4A894341AE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17820" windowHeight="15324" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="30648" yWindow="288" windowWidth="22404" windowHeight="15912" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,13 +71,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,7 +427,7 @@
   <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,12 +2157,13 @@
         <f t="shared" si="0"/>
         <v>2020.75</v>
       </c>
-      <c r="B216">
-        <v>-1.0121051652161399</v>
+      <c r="B216" s="1">
+        <v>-0.86737208863459903</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A6EF8-4853-408A-865A-4A894341AE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00669E8-5392-4C35-A344-EDCD35E39D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30648" yWindow="288" windowWidth="22404" windowHeight="15912" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="16476" yWindow="588" windowWidth="17820" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,7 +2158,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.86737208863459903</v>
+        <v>-0.35143574733810201</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00669E8-5392-4C35-A344-EDCD35E39D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C4263-A6C7-44EF-AB84-48A8CFFAFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16476" yWindow="588" windowWidth="17820" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="2364" yWindow="792" windowWidth="23640" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,7 +2140,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3732859785805704</v>
+        <v>-8.3810508447966097</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2149,7 +2149,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5229996118123901</v>
+        <v>-3.57220150482493</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2158,7 +2158,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.35143574733810201</v>
+        <v>-0.32725662993393601</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C4263-A6C7-44EF-AB84-48A8CFFAFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337AD70-7575-4C73-8C10-9A556BB0166F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="792" windowWidth="23640" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="10932" yWindow="828" windowWidth="21492" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -105,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -424,132 +425,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1967.25</v>
       </c>
       <c r="B2">
         <v>2.7563841083519098</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1967.5</v>
       </c>
       <c r="B3">
         <v>2.7813718542741199</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1967.75</v>
       </c>
       <c r="B4">
         <v>2.6001818388798199</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1968</v>
       </c>
       <c r="B5">
         <v>2.69272213016079</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1968.25</v>
       </c>
       <c r="B6">
         <v>2.96268021588293</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1968.5</v>
       </c>
       <c r="B7">
         <v>2.9979466686999898</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1968.75</v>
       </c>
       <c r="B8">
         <v>3.14449153706851</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1969</v>
       </c>
       <c r="B9">
         <v>3.11184201547352</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1969.25</v>
       </c>
       <c r="B10">
         <v>3.2705362886249301</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1969.5</v>
       </c>
       <c r="B11">
         <v>3.1695492292125298</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1969.75</v>
       </c>
       <c r="B12">
         <v>3.4566834057296001</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1970</v>
       </c>
       <c r="B13">
         <v>2.6717436477817298</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1970.25</v>
       </c>
       <c r="B14">
         <v>2.1131286839592498</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1970.5</v>
       </c>
       <c r="B15">
         <v>1.1192779961452599</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1970.75</v>
       </c>
@@ -557,7 +575,7 @@
         <v>-0.11119504860564999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1971</v>
       </c>
@@ -565,7 +583,7 @@
         <v>0.18121395332622001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1971.25</v>
       </c>
@@ -573,7 +591,7 @@
         <v>0.52702316815058703</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1971.5</v>
       </c>
@@ -581,7 +599,7 @@
         <v>0.476401636734614</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1971.75</v>
       </c>
@@ -589,7 +607,7 @@
         <v>0.215525056708921</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1972</v>
       </c>
@@ -597,7 +615,7 @@
         <v>5.44811208007756E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1972.25</v>
       </c>
@@ -605,7 +623,7 @@
         <v>0.49088353500319498</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1972.5</v>
       </c>
@@ -613,7 +631,7 @@
         <v>0.38325768764444501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1972.75</v>
       </c>
@@ -621,63 +639,70 @@
         <v>0.76181327204041305</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1973</v>
       </c>
       <c r="B25">
         <v>2.0442958590742601</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1973.25</v>
       </c>
       <c r="B26">
         <v>2.4724522471089498</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1973.5</v>
       </c>
       <c r="B27">
         <v>2.5589878510570201</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1973.75</v>
       </c>
       <c r="B28">
         <v>2.5473669127746801</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1974</v>
       </c>
       <c r="B29">
         <v>2.4308326284839601</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1974.25</v>
       </c>
       <c r="B30">
         <v>2.2449634077196898</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1974.5</v>
       </c>
       <c r="B31">
         <v>1.7855863672757899</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1974.75</v>
       </c>
@@ -685,87 +710,97 @@
         <v>-0.137769952387268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1975</v>
       </c>
       <c r="B33">
         <v>-3.0305533089347501</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1975.25</v>
       </c>
       <c r="B34">
         <v>-4.1079781429811799</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1975.5</v>
       </c>
       <c r="B35">
         <v>-3.4016599182531602</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1975.75</v>
       </c>
       <c r="B36">
         <v>-3.1197848432119</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1976</v>
       </c>
       <c r="B37">
         <v>-2.77052060694069</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1976.25</v>
       </c>
       <c r="B38">
         <v>-2.1395256942669501</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1976.5</v>
       </c>
       <c r="B39">
         <v>-2.2904542735507398</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1976.75</v>
       </c>
       <c r="B40">
         <v>-2.5254781104078301</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1977</v>
       </c>
       <c r="B41">
         <v>-2.1025918703447601</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1977.25</v>
       </c>
       <c r="B42">
         <v>-1.43482786382844</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1977.5</v>
       </c>
@@ -773,7 +808,7 @@
         <v>-0.80361975589675605</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1977.75</v>
       </c>
@@ -781,7 +816,7 @@
         <v>-0.30162836870371001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1978</v>
       </c>
@@ -789,7 +824,7 @@
         <v>9.7505426111421697E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1978.25</v>
       </c>
@@ -797,7 +832,7 @@
         <v>0.60639452048090203</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1978.5</v>
       </c>
@@ -805,31 +840,34 @@
         <v>0.77712351257943602</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1978.75</v>
       </c>
       <c r="B48">
         <v>1.1969069515103099</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1979</v>
       </c>
       <c r="B49">
         <v>1.1337591985600499</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1979.25</v>
       </c>
       <c r="B50">
         <v>1.1353754936403999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1979.5</v>
       </c>
@@ -837,7 +875,7 @@
         <v>0.96238424619159402</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1979.75</v>
       </c>
@@ -845,7 +883,7 @@
         <v>0.89824408809155998</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1980</v>
       </c>
@@ -853,231 +891,259 @@
         <v>0.37492518643846801</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1980.25</v>
       </c>
       <c r="B54">
         <v>-2.0496483329669402</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1980.5</v>
       </c>
       <c r="B55">
         <v>-3.13410507366588</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1980.75</v>
       </c>
       <c r="B56">
         <v>-2.0639683713758701</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1981</v>
       </c>
       <c r="B57">
         <v>-1.8701723152542999</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1981.25</v>
       </c>
       <c r="B58">
         <v>-2.3596068939688899</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1981.5</v>
       </c>
       <c r="B59">
         <v>-2.07421330041733</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1981.75</v>
       </c>
       <c r="B60">
         <v>-3.63671635845667</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1982</v>
       </c>
       <c r="B61">
         <v>-4.3855349771026599</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1982.25</v>
       </c>
       <c r="B62">
         <v>-4.79963728011165</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1982.5</v>
       </c>
       <c r="B63">
         <v>-6.1052870364138903</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1982.75</v>
       </c>
       <c r="B64">
         <v>-7.17326323327985</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1983</v>
       </c>
       <c r="B65">
         <v>-6.3762384163112502</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1983.25</v>
       </c>
       <c r="B66">
         <v>-6.2043205291223202</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1983.5</v>
       </c>
       <c r="B67">
         <v>-4.7536542831766502</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1983.75</v>
       </c>
       <c r="B68">
         <v>-3.5814782575058302</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1984</v>
       </c>
       <c r="B69">
         <v>-3.49859523000756</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1984.25</v>
       </c>
       <c r="B70">
         <v>-2.7993687579337601</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1984.5</v>
       </c>
       <c r="B71">
         <v>-3.16475357702969</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1984.75</v>
       </c>
       <c r="B72">
         <v>-2.5708262788092799</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1985</v>
       </c>
       <c r="B73">
         <v>-2.3250767186574</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1985.25</v>
       </c>
       <c r="B74">
         <v>-2.5378987223295502</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1985.5</v>
       </c>
       <c r="B75">
         <v>-2.1844064123435198</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1985.75</v>
       </c>
       <c r="B76">
         <v>-1.95276160757679</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1986</v>
       </c>
       <c r="B77">
         <v>-2.12147671907538</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1986.25</v>
       </c>
       <c r="B78">
         <v>-2.3023377631058701</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1986.5</v>
       </c>
       <c r="B79">
         <v>-2.0392874939787999</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1986.75</v>
       </c>
       <c r="B80">
         <v>-1.9260078217018799</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1987</v>
       </c>
       <c r="B81">
         <v>-1.30783608012108</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1987.25</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>-0.83508727970341701</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1987.5</v>
       </c>
@@ -1093,7 +1159,7 @@
         <v>-0.47229739345877603</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1987.75</v>
       </c>
@@ -1101,7 +1167,7 @@
         <v>0.174535710599244</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1988</v>
       </c>
@@ -1109,7 +1175,7 @@
         <v>7.0758521463143403E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1988.25</v>
       </c>
@@ -1117,7 +1183,7 @@
         <v>0.29327559521172802</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1988.5</v>
       </c>
@@ -1125,7 +1191,7 @@
         <v>0.230218049885966</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1988.75</v>
       </c>
@@ -1133,7 +1199,7 @@
         <v>0.53723936624690005</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1989</v>
       </c>
@@ -1141,7 +1207,7 @@
         <v>0.82082040274429302</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1989.25</v>
       </c>
@@ -1149,7 +1215,7 @@
         <v>0.76400627265000898</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1989.5</v>
       </c>
@@ -1157,7 +1223,7 @@
         <v>0.50821045249838104</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1989.75</v>
       </c>
@@ -1165,7 +1231,7 @@
         <v>0.25356978779835798</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1990</v>
       </c>
@@ -1173,7 +1239,7 @@
         <v>0.50919616147080404</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1990.25</v>
       </c>
@@ -1181,7 +1247,7 @@
         <v>0.60942569888027298</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1990.5</v>
       </c>
@@ -1189,7 +1255,7 @@
         <v>0.74578590442797599</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1990.75</v>
       </c>
@@ -1325,15 +1391,16 @@
         <v>0.933157431796516</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1995</v>
       </c>
       <c r="B113">
         <v>1.2641917832470999</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1995.25</v>
       </c>
@@ -1341,7 +1408,7 @@
         <v>0.85372947342012795</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1995.5</v>
       </c>
@@ -1349,7 +1416,7 @@
         <v>0.55067967335451495</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1995.75</v>
       </c>
@@ -1357,7 +1424,7 @@
         <v>0.76327987274753495</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1996</v>
       </c>
@@ -1365,7 +1432,7 @@
         <v>0.763537165434647</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1996.25</v>
       </c>
@@ -1373,7 +1440,7 @@
         <v>0.73062247456912</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1996.5</v>
       </c>
@@ -1381,7 +1448,7 @@
         <v>0.85637369609352598</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1996.75</v>
       </c>
@@ -1389,7 +1456,7 @@
         <v>0.68593006181136795</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1997</v>
       </c>
@@ -1397,7 +1464,7 @@
         <v>0.70345866353917996</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1997.25</v>
       </c>
@@ -1405,7 +1472,7 @@
         <v>0.76789702918642599</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1997.5</v>
       </c>
@@ -1413,15 +1480,16 @@
         <v>0.76719383733392399</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1997.75</v>
       </c>
       <c r="B124">
         <v>1.07327834433166</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1998</v>
       </c>
@@ -1429,23 +1497,25 @@
         <v>0.90286424354058004</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1998.25</v>
       </c>
       <c r="B126">
         <v>1.13552548362237</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1998.5</v>
       </c>
       <c r="B127">
         <v>1.1408003014188499</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1998.75</v>
       </c>
@@ -1453,7 +1523,7 @@
         <v>0.95161601437347998</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1999</v>
       </c>
@@ -1461,87 +1531,97 @@
         <v>0.93800533065337999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1999.25</v>
       </c>
       <c r="B130">
         <v>1.06895055312259</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1999.5</v>
       </c>
       <c r="B131">
         <v>1.24798964090136</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1999.75</v>
       </c>
       <c r="B132">
         <v>1.5015191053882899</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2000</v>
       </c>
       <c r="B133">
         <v>1.41794592214792</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2000.25</v>
       </c>
       <c r="B134">
         <v>1.5061559162971501</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2000.5</v>
       </c>
       <c r="B135">
         <v>1.52002224765784</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2000.75</v>
       </c>
       <c r="B136">
         <v>1.7398976908704</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2001</v>
       </c>
       <c r="B137">
         <v>1.9034690797835601</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2001.25</v>
       </c>
       <c r="B138">
         <v>1.73248302823574</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2001.5</v>
       </c>
       <c r="B139">
         <v>1.64863138518541</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2001.75</v>
       </c>
@@ -1549,7 +1629,7 @@
         <v>0.69118262988594503</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2002</v>
       </c>
@@ -1557,7 +1637,7 @@
         <v>-0.19555857765186599</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2002.25</v>
       </c>
@@ -1565,7 +1645,7 @@
         <v>-0.18835435957895699</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2002.5</v>
       </c>
@@ -1573,7 +1653,7 @@
         <v>0.522867241516489</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2002.75</v>
       </c>
@@ -1581,7 +1661,7 @@
         <v>0.43727220039973003</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2003</v>
       </c>
@@ -1589,7 +1669,7 @@
         <v>0.79456759436913305</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2003.25</v>
       </c>
@@ -1597,7 +1677,7 @@
         <v>-8.0235256775274003E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2003.5</v>
       </c>
@@ -1605,7 +1685,7 @@
         <v>-5.7195255681297102E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2003.75</v>
       </c>
@@ -1613,7 +1693,7 @@
         <v>0.41623326804176602</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -1621,303 +1701,340 @@
         <v>0.56536638436277498</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004.25</v>
       </c>
       <c r="B150">
         <v>1.00645591226736</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004.5</v>
       </c>
       <c r="B151">
         <v>1.0515783970788599</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004.75</v>
       </c>
       <c r="B152">
         <v>1.10608160100343</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2005</v>
       </c>
       <c r="B153">
         <v>1.4586904590913701</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2005.25</v>
       </c>
       <c r="B154">
         <v>1.4403661645899599</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2005.5</v>
       </c>
       <c r="B155">
         <v>1.86769806373921</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2005.75</v>
       </c>
       <c r="B156">
         <v>1.6911816039968599</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2006</v>
       </c>
       <c r="B157">
         <v>1.78730315040598</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2006.25</v>
       </c>
       <c r="B158">
         <v>2.2089538582435102</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2006.5</v>
       </c>
       <c r="B159">
         <v>2.02196046348317</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2006.75</v>
       </c>
       <c r="B160">
         <v>1.7633302657821499</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2007</v>
       </c>
       <c r="B161">
         <v>1.63058404911012</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2007.25</v>
       </c>
       <c r="B162">
         <v>1.88789934068641</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2007.5</v>
       </c>
       <c r="B163">
         <v>1.8453658457575</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2007.75</v>
       </c>
       <c r="B164">
         <v>1.99301497662925</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2008</v>
       </c>
       <c r="B165">
         <v>1.7840371305834799</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2008.25</v>
       </c>
       <c r="B166">
         <v>2.1285026670542</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2008.5</v>
       </c>
       <c r="B167">
         <v>1.37317764862888</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2008.75</v>
       </c>
       <c r="B168">
         <v>-1.3126301340392701</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2009</v>
       </c>
       <c r="B169">
         <v>-3.16409895687165</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2009.25</v>
       </c>
       <c r="B170">
         <v>-4.2912962223982101</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2009.5</v>
       </c>
       <c r="B171">
         <v>-3.8785776317548</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2009.75</v>
       </c>
       <c r="B172">
         <v>-3.7216079272685398</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2010</v>
       </c>
       <c r="B173">
         <v>-3.61458887260022</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2010.25</v>
       </c>
       <c r="B174">
         <v>-3.1116954859624002</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2010.5</v>
       </c>
       <c r="B175">
         <v>-2.7363101034744899</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2010.75</v>
       </c>
       <c r="B176">
         <v>-2.8386683898906302</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2011</v>
       </c>
       <c r="B177">
         <v>-2.3967520175438501</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2011.25</v>
       </c>
       <c r="B178">
         <v>-2.1400751953820198</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2011.5</v>
       </c>
       <c r="B179">
         <v>-1.57794792154478</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2011.75</v>
       </c>
       <c r="B180">
         <v>-1.66664425218942</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2012</v>
       </c>
       <c r="B181">
         <v>-1.86536313022443</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2012.25</v>
       </c>
       <c r="B182">
         <v>-2.0111017737299699</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2012.5</v>
       </c>
       <c r="B183">
         <v>-1.9832378812449101</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2012.75</v>
       </c>
       <c r="B184">
         <v>-1.6149352346177599</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2013</v>
       </c>
       <c r="B185">
         <v>-1.2880128979372201</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2013.25</v>
       </c>
       <c r="B186">
         <v>-1.0945564175305</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2013.5</v>
       </c>
@@ -1925,7 +2042,7 @@
         <v>-0.69868492598479404</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2013.75</v>
       </c>
@@ -1933,7 +2050,7 @@
         <v>0.18336054016303599</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2014</v>
       </c>
@@ -1941,31 +2058,34 @@
         <v>0.420487789053547</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2014.25</v>
       </c>
       <c r="B190">
         <v>1.246325657923</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2014.5</v>
       </c>
       <c r="B191">
         <v>1.3863704429591699</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2014.75</v>
       </c>
       <c r="B192">
         <v>1.0627735190220899</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -1973,7 +2093,7 @@
         <v>0.98296122068108904</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2015.25</v>
       </c>
@@ -1981,15 +2101,16 @@
         <v>0.91357568683143597</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2015.5</v>
       </c>
       <c r="B195">
         <v>1.15833767692217</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2015.75</v>
       </c>
@@ -1997,7 +2118,7 @@
         <v>0.87418633899927201</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -2005,127 +2126,142 @@
         <v>0.99962925276013703</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2016.25</v>
       </c>
       <c r="B198">
         <v>1.21253063744866</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2016.5</v>
       </c>
       <c r="B199">
         <v>1.5862935779543901</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2016.75</v>
       </c>
       <c r="B200">
         <v>1.48509865345603</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2017</v>
       </c>
       <c r="B201">
         <v>1.8050772894373299</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2017.25</v>
       </c>
       <c r="B202">
         <v>2.1574121503278998</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2017.5</v>
       </c>
       <c r="B203">
         <v>2.4036976107139298</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2017.75</v>
       </c>
       <c r="B204">
         <v>2.2423035697299598</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2018</v>
       </c>
       <c r="B205">
         <v>2.2264739020057198</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2018.25</v>
       </c>
       <c r="B206">
         <v>2.25246018326835</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2018.5</v>
       </c>
       <c r="B207">
         <v>2.3517038435394699</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2018.75</v>
       </c>
       <c r="B208">
         <v>2.2168000962363501</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2019</v>
       </c>
       <c r="B209">
         <v>2.1586300568044101</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2019.25</v>
       </c>
       <c r="B210">
         <v>2.2301377869204901</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2019.5</v>
       </c>
       <c r="B211">
         <v>2.6791145329735602</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2019.75</v>
       </c>
       <c r="B212">
         <v>2.4709501841203099</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>A212+0.25</f>
         <v>2020</v>
@@ -2133,8 +2269,9 @@
       <c r="B213">
         <v>2.4278763435280801</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" ref="A214:A216" si="0">A213+0.25</f>
         <v>2020.25</v>
@@ -2142,8 +2279,9 @@
       <c r="B214">
         <v>-8.3810508447966097</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="0"/>
         <v>2020.5</v>
@@ -2151,14 +2289,15 @@
       <c r="B215">
         <v>-3.57220150482493</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="0"/>
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.32725662993393601</v>
+        <v>-0.3679</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337AD70-7575-4C73-8C10-9A556BB0166F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606BC8A-2EF9-48B3-8665-F7668F7674DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="828" windowWidth="21492" windowHeight="15432" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="6084" yWindow="984" windowWidth="19644" windowHeight="14760" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7563841083519098</v>
+        <v>2.7563841083519498</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -464,7 +464,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.6001818388798199</v>
+        <v>2.6001818388797999</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -473,7 +473,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.69272213016079</v>
+        <v>2.6927221301607598</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -588,7 +588,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.52702316815058703</v>
+        <v>0.52702316815060901</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.2449634077196898</v>
+        <v>2.2449634077196698</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -715,7 +715,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.0305533089347501</v>
+        <v>-3.0305533089347598</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -724,7 +724,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1079781429811799</v>
+        <v>-4.1079781429811897</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -733,7 +733,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.4016599182531602</v>
+        <v>-3.40165991825315</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -742,7 +742,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1197848432119</v>
+        <v>-3.1197848432118902</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -787,7 +787,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1025918703447601</v>
+        <v>-2.1025918703447499</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -805,7 +805,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.80361975589675605</v>
+        <v>-0.80361975589676704</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,7 +813,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.30162836870371001</v>
+        <v>-0.30162836870372101</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.77712351257943602</v>
+        <v>0.77712351257941403</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,7 +845,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.1969069515103099</v>
+        <v>1.1969069515102899</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -854,7 +854,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.1337591985600499</v>
+        <v>1.1337591985600199</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -863,7 +863,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.1353754936403999</v>
+        <v>1.1353754936404199</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -914,7 +914,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.0639683713758701</v>
+        <v>-2.0639683713758599</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -923,7 +923,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.8701723152542999</v>
+        <v>-1.8701723152543099</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -950,7 +950,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.63671635845667</v>
+        <v>-3.6367163584566602</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -968,7 +968,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.79963728011165</v>
+        <v>-4.7996372801116598</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -986,7 +986,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.17326323327985</v>
+        <v>-7.1732632332798598</v>
       </c>
       <c r="C64" s="2"/>
     </row>
@@ -1004,7 +1004,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.2043205291223202</v>
+        <v>-6.20432052912233</v>
       </c>
       <c r="C66" s="2"/>
     </row>
@@ -1013,7 +1013,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.7536542831766502</v>
+        <v>-4.7536542831766297</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -1022,7 +1022,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.5814782575058302</v>
+        <v>-3.5814782575058199</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -1031,7 +1031,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.49859523000756</v>
+        <v>-3.4985952300075498</v>
       </c>
       <c r="C69" s="2"/>
     </row>
@@ -1058,7 +1058,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.5708262788092799</v>
+        <v>-2.5708262788092902</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -1067,7 +1067,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.3250767186574</v>
+        <v>-2.3250767186574199</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -1103,7 +1103,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.12147671907538</v>
+        <v>-2.1214767190753898</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -1112,7 +1112,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.3023377631058701</v>
+        <v>-2.3023377631058799</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -1156,7 +1156,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.47229739345877603</v>
+        <v>-0.47229739345876498</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.82082040274429302</v>
+        <v>0.82082040274427104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.50821045249838104</v>
+        <v>0.50821045249835906</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.60942569888027298</v>
+        <v>0.60942569888025</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.52262065285375603</v>
+        <v>-0.52262065285374504</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.231841564894852</v>
+        <v>-0.23184156489486399</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.44369960384184098</v>
+        <v>-0.44369960384182999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.74221346605729499</v>
+        <v>-0.742213466057284</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2641917832470999</v>
+        <v>1.2641917832470799</v>
       </c>
       <c r="C113" s="2"/>
     </row>
@@ -1405,7 +1405,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.85372947342012795</v>
+        <v>0.85372947342010597</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.55067967335451495</v>
+        <v>0.55067967335449297</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.76327987274753495</v>
+        <v>0.76327987274751297</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76789702918642599</v>
+        <v>0.76789702918640401</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.76719383733392399</v>
+        <v>0.76719383733390201</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.13552548362237</v>
+        <v>1.1355254836223501</v>
       </c>
       <c r="C126" s="2"/>
     </row>
@@ -1511,7 +1511,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.1408003014188499</v>
+        <v>1.1408003014188299</v>
       </c>
       <c r="C127" s="2"/>
     </row>
@@ -1528,7 +1528,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.93800533065337999</v>
+        <v>0.938005330653358</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.06895055312259</v>
+        <v>1.06895055312257</v>
       </c>
       <c r="C130" s="2"/>
     </row>
@@ -1554,7 +1554,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.5015191053882899</v>
+        <v>1.5015191053882699</v>
       </c>
       <c r="C132" s="2"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.52002224765784</v>
+        <v>1.52002224765782</v>
       </c>
       <c r="C135" s="2"/>
     </row>
@@ -1642,7 +1642,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.18835435957895699</v>
+        <v>-0.188354359578946</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.41623326804176602</v>
+        <v>0.41623326804178801</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.10608160100343</v>
+        <v>1.10608160100341</v>
       </c>
       <c r="C152" s="2"/>
     </row>
@@ -1778,7 +1778,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.2089538582435102</v>
+        <v>2.2089538582435302</v>
       </c>
       <c r="C158" s="2"/>
     </row>
@@ -1814,7 +1814,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.88789934068641</v>
+        <v>1.88789934068638</v>
       </c>
       <c r="C162" s="2"/>
     </row>
@@ -1823,7 +1823,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.8453658457575</v>
+        <v>1.84536584575747</v>
       </c>
       <c r="C163" s="2"/>
     </row>
@@ -1859,7 +1859,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.37317764862888</v>
+        <v>1.3731776486289</v>
       </c>
       <c r="C167" s="2"/>
     </row>
@@ -1868,7 +1868,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.3126301340392701</v>
+        <v>-1.3126301340392601</v>
       </c>
       <c r="C168" s="2"/>
     </row>
@@ -1886,7 +1886,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.2912962223982101</v>
+        <v>-4.2912962223982198</v>
       </c>
       <c r="C170" s="2"/>
     </row>
@@ -1895,7 +1895,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.8785776317548</v>
+        <v>-3.8785776317548102</v>
       </c>
       <c r="C171" s="2"/>
     </row>
@@ -1913,7 +1913,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.61458887260022</v>
+        <v>-3.6145888726002302</v>
       </c>
       <c r="C173" s="2"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-3.1116954859624002</v>
+        <v>-3.1116954859623802</v>
       </c>
       <c r="C174" s="2"/>
     </row>
@@ -1931,7 +1931,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.7363101034744899</v>
+        <v>-2.7363101034745001</v>
       </c>
       <c r="C175" s="2"/>
     </row>
@@ -1958,7 +1958,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-2.1400751953820198</v>
+        <v>-2.1400751953820301</v>
       </c>
       <c r="C178" s="2"/>
     </row>
@@ -1976,7 +1976,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.66664425218942</v>
+        <v>-1.66664425218941</v>
       </c>
       <c r="C180" s="2"/>
     </row>
@@ -2003,7 +2003,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.9832378812449101</v>
+        <v>-1.9832378812449001</v>
       </c>
       <c r="C183" s="2"/>
     </row>
@@ -2039,7 +2039,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.69868492598479404</v>
+        <v>-0.69868492598478305</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.246325657923</v>
+        <v>1.24632565792302</v>
       </c>
       <c r="C190" s="2"/>
     </row>
@@ -2081,7 +2081,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.0627735190220899</v>
+        <v>1.0627735190221099</v>
       </c>
       <c r="C192" s="2"/>
     </row>
@@ -2106,7 +2106,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.15833767692217</v>
+        <v>1.15833767692219</v>
       </c>
       <c r="C195" s="2"/>
     </row>
@@ -2149,7 +2149,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.48509865345603</v>
+        <v>1.48509865345601</v>
       </c>
       <c r="C200" s="2"/>
     </row>
@@ -2185,7 +2185,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2423035697299598</v>
+        <v>2.2423035697299398</v>
       </c>
       <c r="C204" s="2"/>
     </row>
@@ -2230,7 +2230,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.1586300568044101</v>
+        <v>2.1586300568043901</v>
       </c>
       <c r="C209" s="2"/>
     </row>
@@ -2277,7 +2277,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.3810508447966097</v>
+        <v>-8.38105084479675</v>
       </c>
       <c r="C214" s="2"/>
     </row>
@@ -2287,7 +2287,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.57220150482493</v>
+        <v>-3.5716640869076599</v>
       </c>
       <c r="C215" s="2"/>
     </row>
@@ -2297,7 +2297,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.3679</v>
+        <v>-0.38399658287169303</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606BC8A-2EF9-48B3-8665-F7668F7674DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA39BC-6E68-47C4-988A-C37884374969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6084" yWindow="984" windowWidth="19644" windowHeight="14760" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="9516" yWindow="1140" windowWidth="21288" windowHeight="14760" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.38399658287169303</v>
+        <v>-0.366122533483626</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA39BC-6E68-47C4-988A-C37884374969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF137E0-0C7F-42BA-B845-4173A646AA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="1140" windowWidth="21288" windowHeight="14760" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="8640" yWindow="864" windowWidth="20676" windowHeight="15288" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,7 +2287,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5716640869076599</v>
+        <v>-3.5711969301287101</v>
       </c>
       <c r="C215" s="2"/>
     </row>
@@ -2297,7 +2297,15 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.366122533483626</v>
+        <v>-0.38676552041348999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>2021</v>
+      </c>
+      <c r="B217">
+        <v>0.283285440912384</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF137E0-0C7F-42BA-B845-4173A646AA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1726BA-E56C-4F2B-8B1E-E017D7FCC396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="864" windowWidth="20676" windowHeight="15288" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="30720" yWindow="1416" windowWidth="16212" windowHeight="11592" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2297,7 +2297,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.38676552041348999</v>
+        <v>-0.41784577649119897</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.283285440912384</v>
+        <v>0.82867643985815598</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1726BA-E56C-4F2B-8B1E-E017D7FCC396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AB468-5D17-40D9-A827-F5284999B873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1416" windowWidth="16212" windowHeight="11592" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="8640" yWindow="348" windowWidth="20976" windowHeight="12360" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,7 +2305,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.82867643985815598</v>
+        <v>0.94699420000000001</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468AB468-5D17-40D9-A827-F5284999B873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F9B91F-A14C-4A23-962B-7D7E247C1278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="348" windowWidth="20976" windowHeight="12360" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="27516" yWindow="2208" windowWidth="23424" windowHeight="16044" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2277,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.38105084479675</v>
+        <v>-8.38102429466662</v>
       </c>
       <c r="C214" s="2"/>
     </row>
@@ -2287,7 +2287,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5711969301287101</v>
+        <v>-3.5774528840846598</v>
       </c>
       <c r="C215" s="2"/>
     </row>
@@ -2297,7 +2297,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.41784577649119897</v>
+        <v>-0.37039495378933301</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.94699420000000001</v>
+        <v>1.1870358864669599</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F9B91F-A14C-4A23-962B-7D7E247C1278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE41B1-1444-4D92-AC74-732E301A0BCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27516" yWindow="2208" windowWidth="23424" windowHeight="16044" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="3456" yWindow="1704" windowWidth="29712" windowHeight="15576" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,12 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,12 +431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2304,8 +2309,8 @@
       <c r="A217">
         <v>2021</v>
       </c>
-      <c r="B217">
-        <v>1.1870358864669599</v>
+      <c r="B217" s="3">
+        <v>1.1355999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE41B1-1444-4D92-AC74-732E301A0BCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065DC1C-AF9D-4893-A7BA-064161FF2327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="1704" windowWidth="29712" windowHeight="15576" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="9900" yWindow="156" windowWidth="17448" windowHeight="16284" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2310,7 +2310,7 @@
         <v>2021</v>
       </c>
       <c r="B217" s="3">
-        <v>1.1355999999999999</v>
+        <v>0.9577</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F065DC1C-AF9D-4893-A7BA-064161FF2327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81042AAC-56FA-4902-A3FE-E9F676BCA465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="156" windowWidth="17448" windowHeight="16284" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="34608" yWindow="1296" windowWidth="24684" windowHeight="14856" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -429,9 +429,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
@@ -2302,7 +2302,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216" s="1">
-        <v>-0.37039495378933301</v>
+        <v>-0.37056652593859801</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,15 @@
         <v>2021</v>
       </c>
       <c r="B217" s="3">
-        <v>0.9577</v>
+        <v>0.96359964274836996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>2021.25</v>
+      </c>
+      <c r="B218">
+        <v>0.68638551084703203</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81042AAC-56FA-4902-A3FE-E9F676BCA465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBEF06F-D0AB-44ED-B541-E6CE280F63C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34608" yWindow="1296" windowWidth="24684" windowHeight="14856" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="10812" yWindow="36" windowWidth="23952" windowHeight="14964" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,21 +71,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,13 +100,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,831 +428,769 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7563841083519498</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7610769954640801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.7813718542741199</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7843832335598102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.6001818388797999</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6049390559853598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.6927221301607598</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.69746331278153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.96268021588293</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9631814490792099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>2.9979466686999898</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.99911400997415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.14449153706851</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.1472228689222801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.11184201547352</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.11474388054847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.2705362886249301</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2731333376426099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.1695492292125298</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.16881096819812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>3.4566834057296001</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4536186205374602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.6717436477817298</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.67415177823771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.1131286839592498</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1116412246808798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1.1192779961452599</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1172451119451501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>-0.11119504860564999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.11255087121238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.18121395332622001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.17616219767067101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.52702316815060901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.52608953533392899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.476401636734614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.477392293037116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.215525056708921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.21545811351757499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>5.44811208007756E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3609550349409403E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.49088353500319498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.489715293359061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.38325768764444501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.38371636671854498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>0.76181327204041305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.761773141902644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.0442958590742601</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0412951053258199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.4724522471089498</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4739029816221301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.5589878510570201</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.56175006931625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.5473669127746801</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5492303072190299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.4308326284839601</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4360602504810198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.2449634077196698</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2422307009162301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1.7855863672757899</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.78207543517852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-0.137769952387268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.13686858420106601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.0305533089347598</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.03377569715783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1079781429811897</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-4.1062972576943997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.40165991825315</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.4012583690214502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1197848432118902</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.1191675372738401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.77052060694069</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.7669749114844699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.1395256942669501</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1396970718672299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2904542735507398</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.2910941534606399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5254781104078301</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.5274877186531799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1025918703447499</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1011917130197002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.43482786382844</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.4350511868785001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.80361975589676704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.803549868091191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.30162836870372101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.30203641055938102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>9.7505426111421697E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.3248942097257106E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.60639452048090203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.60460313632575402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.77712351257941403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.77600974166292003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.1969069515102899</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1979807816821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.1337591985600199</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.12866304979897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.1353754936404199</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1357053726519299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.96238424619159402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.96094661577652596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.89824408809155998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.89628243067287905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>0.37492518643846801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.37830484236369699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.0496483329669402</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.05180853784293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.13410507366588</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.1329807180720701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.0639683713758599</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0643061854702101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.8701723152543099</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.87281805804168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.3596068939688899</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.3613253587449101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.07421330041733</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0738693745268701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.6367163584566602</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.6365851813126699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.3855349771026599</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-4.3860479908482404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.7996372801116598</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-4.7952376382415203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.1052870364138903</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-6.1055147472892299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.1732632332798598</v>
-      </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-7.1684862698936804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.3762384163112502</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-6.3729410261697197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.20432052912233</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-6.1997587327759298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.7536542831766297</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-4.74967699234361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.5814782575058199</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.5791553308010799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.4985952300075498</v>
-      </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.48850409521831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.7993687579337601</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.7982462640249199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.16475357702969</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.16598860375036</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.5708262788092902</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.56814432472531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.3250767186574199</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.3269919467014701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.5378987223295502</v>
-      </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.53910731663994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.1844064123435198</v>
-      </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1835193246102498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-1.95276160757679</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.9559731318359199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1214767190753898</v>
-      </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1216712861076998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.3023377631058799</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.3016421231642501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.0392874939787999</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0374223736862001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.9260078217018799</v>
-      </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.92767563537355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.30783608012108</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.3070550678894299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.83508727970341701</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.835269736173472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.47229739345876498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.47307034833934403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.174535710599244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.17679332407405399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>7.0758521463143403E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.2480948939568399E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.29327559521172802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.29067474225290502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.230218049885966</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.230877265722818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.53723936624690005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.53931129335063099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.82082040274427104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.82005246403591403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.76400627265000898</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.76478101645760499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.50821045249835906</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.50969999166536895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.25356978779835798</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.256153011427385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.50919616147080404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.51139469516210401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.60942569888025</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.61042245314473198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.74578590442797599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.74508369628980597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.63453920623013405</v>
+        <v>0.638545767631848</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1198,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.50545469305661705</v>
+        <v>-0.50237733105910098</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1281,7 +1206,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.77556891917679505</v>
+        <v>-0.77714290853022605</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1289,7 +1214,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.52262065285374504</v>
+        <v>-0.523330988722159</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1297,7 +1222,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.23184156489486399</v>
+        <v>-0.23230425701437099</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1230,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.44369960384182999</v>
+        <v>-0.44616095054275101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1238,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.85101857678994097</v>
+        <v>-0.85237010172679595</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,7 +1246,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.452320739690526</v>
+        <v>-0.45341560111268298</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1329,7 +1254,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.742213466057284</v>
+        <v>-0.74527650144660096</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,7 +1262,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-0.28496577153497299</v>
+        <v>-0.285946939766757</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1345,7 +1270,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>-8.3594129786757093E-2</v>
+        <v>-8.4864915783133807E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1353,7 +1278,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.49125414520070398</v>
+        <v>0.48919464846579602</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1286,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.234595460653719</v>
+        <v>0.23095438295488399</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1369,7 +1294,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.18944422671928199</v>
+        <v>-0.19363077125508199</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,7 +1302,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.34230090892908299</v>
+        <v>0.34246209651644899</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1310,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.673624161147379</v>
+        <v>0.67264504066395503</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1393,932 +1318,859 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.933157431796516</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.93402597752065797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2641917832470799</v>
-      </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2639861397321299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.85372947342010597</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.85612226693125903</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.55067967335449297</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.552819159498674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.76327987274751297</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.76582316658695404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.763537165434647</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.765685211702682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.73062247456912</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.73148686046891098</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.85637369609352598</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.85914628837149298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.68593006181136795</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.68942471423594198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.70345866353917996</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.70747004303970396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76789702918640401</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.76889263778172601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.76719383733390201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.76655575930375497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1.07327834433166</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.07407167367999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>0.90286424354058004</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.90637976527172504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.1355254836223501</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.13709918067875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.1408003014188299</v>
-      </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1426543389149599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.95161601437347998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.95308091516470606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.938005330653358</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.93887802613525895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.06895055312257</v>
-      </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.07158650059815</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.24798964090136</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.25020184785152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.5015191053882699</v>
-      </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5035733818735699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.41794592214792</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.42282710259409</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.5061559162971501</v>
-      </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5088963536634701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.52002224765782</v>
-      </c>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5245209779521001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.7398976908704</v>
-      </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.74405999631617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.9034690797835601</v>
-      </c>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.90680304357846</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.73248302823574</v>
-      </c>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7328045964162899</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>1.64863138518541</v>
-      </c>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.64735400937626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>0.69118262988594503</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.69212892078649502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.19555857765186599</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.192765809033002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.188354359578946</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.18709840818639201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.522867241516489</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.51931004827519001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.43727220039973003</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.43627779130579503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.79456759436913305</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.78838549599473695</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-8.0235256775274003E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-8.15266346900545E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-5.7195255681297102E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-6.0642103571073601E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.41623326804178801</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.415694875023087</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>0.56536638436277498</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.56124338890022296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.00645591226736</v>
-      </c>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0055519066166201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.0515783970788599</v>
-      </c>
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0523586755949199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.10608160100341</v>
-      </c>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.10070324521456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.4586904590913701</v>
-      </c>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.46170861624439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.4403661645899599</v>
-      </c>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4411108549081699</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.86769806373921</v>
-      </c>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8680512343908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.6911816039968599</v>
-      </c>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.69335525085366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.78730315040598</v>
-      </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.78860456141654</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.2089538582435302</v>
-      </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2115903120202498</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>2.02196046348317</v>
-      </c>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0214468801019301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.7633302657821499</v>
-      </c>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7643580414920901</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.63058404911012</v>
-      </c>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.63230239313943</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.88789934068638</v>
-      </c>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8875761716421</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.84536584575747</v>
-      </c>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.84692886059918</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.99301497662925</v>
-      </c>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9948682600880301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.7840371305834799</v>
-      </c>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.78554132469007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.1285026670542</v>
-      </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1238168205467201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.3731776486289</v>
-      </c>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3684938804498199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.3126301340392601</v>
-      </c>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.31486953864414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.16409895687165</v>
-      </c>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.1622515613241502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.2912962223982198</v>
-      </c>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-4.2933975982313104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.8785776317548102</v>
-      </c>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.88163544986757</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.7216079272685398</v>
-      </c>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.72332887568033</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.6145888726002302</v>
-      </c>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.61858747956463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-3.1116954859623802</v>
-      </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.1163475733702901</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.7363101034745001</v>
-      </c>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.7372965652580299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.8386683898906302</v>
-      </c>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.84172299141636</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.3967520175438501</v>
-      </c>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.4056852400707101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-2.1400751953820301</v>
-      </c>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.1456018102472298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.57794792154478</v>
-      </c>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.5846397529963101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.66664425218941</v>
-      </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.6668517273439301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.86536313022443</v>
-      </c>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.8676876672459799</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-2.0111017737299699</v>
-      </c>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-2.0141967721817098</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.9832378812449001</v>
-      </c>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.98601599486756</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.6149352346177599</v>
-      </c>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.6209042119288499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.2880128979372201</v>
-      </c>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.28959078133974</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-1.0945564175305</v>
-      </c>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.0933717908524301</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.69868492598478305</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.69820904011803597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.18336054016303599</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.18678773425553399</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.420487789053547</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.41826622670739799</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.24632565792302</v>
-      </c>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.24476248577858</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.3863704429591699</v>
-      </c>
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.38276518922629</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.0627735190221099</v>
-      </c>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.05924970065512</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>0.98296122068108904</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.97661220382840896</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>0.91357568683143597</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.91007165031926596</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.15833767692219</v>
-      </c>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1560219617348999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.87418633899927201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.87574371231975401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>0.99962925276013703</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.00255615030087</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.21253063744866</v>
-      </c>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2120116098886</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.5862935779543901</v>
-      </c>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5914898557358701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.48509865345601</v>
-      </c>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4846207056914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>1.8050772894373299</v>
-      </c>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.80141596804575</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.1574121503278998</v>
-      </c>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1527632509686301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.4036976107139298</v>
-      </c>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4018669238372801</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2423035697299398</v>
-      </c>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2509485995928298</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.2264739020057198</v>
-      </c>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2252019898275899</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.25246018326835</v>
-      </c>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2571213799137602</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.3517038435394699</v>
-      </c>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3626646246519298</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.2168000962363501</v>
-      </c>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.22844426139162</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.1586300568043901</v>
-      </c>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1535213162000102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.2301377869204901</v>
-      </c>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2339004053871099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.6791145329735602</v>
-      </c>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6867953763102301</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.4709501841203099</v>
-      </c>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4810173089771199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>A212+0.25</f>
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>2.4278763435280801</v>
-      </c>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4206001204441598</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" ref="A214:A216" si="0">A213+0.25</f>
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.38102429466662</v>
-      </c>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-8.37765043013008</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="0"/>
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5774528840846598</v>
-      </c>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-3.5827580443580298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="0"/>
         <v>2020.75</v>
       </c>
-      <c r="B216" s="1">
-        <v>-0.37056652593859801</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>-0.37384476438613301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2021</v>
       </c>
-      <c r="B217" s="3">
-        <v>0.96359964274836996</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0.93732131287755904</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>0.68638551084703203</v>
+        <v>0.76843335346437103</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBEF06F-D0AB-44ED-B541-E6CE280F63C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A9EFB7-4C66-44F4-96A1-85F5BA7E8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10812" yWindow="36" windowWidth="23952" windowHeight="14964" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="28272" windowHeight="14964" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2162,7 +2162,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.93732131287755904</v>
+        <v>0.93733930106818497</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>0.76843335346437103</v>
+        <v>1.0329609268719699</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A9EFB7-4C66-44F4-96A1-85F5BA7E8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135BFEC-AAC8-4363-B374-29633672712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="28272" windowHeight="14964" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="30420" yWindow="1116" windowWidth="28236" windowHeight="15492" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7610769954640801</v>
+        <v>2.7703049997464602</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.7843832335598102</v>
+        <v>2.7799823467372402</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.6049390559853598</v>
+        <v>2.5926743229459199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.69746331278153</v>
+        <v>2.6894508871969198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.9631814490792099</v>
+        <v>2.9577137244324798</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>2.99911400997415</v>
+        <v>2.9925184229347499</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +486,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.1472228689222801</v>
+        <v>3.14094147931565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.11474388054847</v>
+        <v>3.1086757903912199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.2731333376426099</v>
+        <v>3.2695004067093199</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.16881096819812</v>
+        <v>3.1673804646438901</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +518,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>3.4536186205374602</v>
+        <v>3.4539343294307101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.67415177823771</v>
+        <v>2.6679688076523198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +534,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.1116412246808798</v>
+        <v>2.1117020994200701</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1.1172451119451501</v>
+        <v>1.1150423240359399</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>-0.11255087121238</v>
+        <v>-0.12595716768892801</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.17616219767067101</v>
+        <v>0.178965812917875</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.52608953533392899</v>
+        <v>0.52519562651420804</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.477392293037116</v>
+        <v>0.470441883434769</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.21545811351757499</v>
+        <v>0.21226904791706899</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>5.3609550349409403E-2</v>
+        <v>4.5711137407078398E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.489715293359061</v>
+        <v>0.48759046504558401</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.38371636671854498</v>
+        <v>0.37518285815452102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>0.761773141902644</v>
+        <v>0.75665048312729699</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.0412951053258199</v>
+        <v>2.0410656646051599</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.4739029816221301</v>
+        <v>2.46806228354288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.56175006931625</v>
+        <v>2.5569963620579701</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.5492303072190299</v>
+        <v>2.5517145960449499</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.4360602504810198</v>
+        <v>2.4338430723997302</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.2422307009162301</v>
+        <v>2.2399532076544002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1.78207543517852</v>
+        <v>1.7842931708326799</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-0.13686858420106601</v>
+        <v>-0.123119599661536</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.03377569715783</v>
+        <v>-3.0296453832888499</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1062972576943997</v>
+        <v>-4.1035607588011596</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.4012583690214502</v>
+        <v>-3.4069160647229801</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1191675372738401</v>
+        <v>-3.1295824686918499</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.7669749114844699</v>
+        <v>-2.7722789537193901</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.1396970718672299</v>
+        <v>-2.1417123595646999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2910941534606399</v>
+        <v>-2.2887609936319002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5274877186531799</v>
+        <v>-2.5339867194499699</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1011917130197002</v>
+        <v>-2.1116706648169901</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.4350511868785001</v>
+        <v>-1.43230191418992</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.803549868091191</v>
+        <v>-0.80031303275759402</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.30203641055938102</v>
+        <v>-0.299993373474783</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>9.3248942097257106E-2</v>
+        <v>8.5973105183612106E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.60460313632575402</v>
+        <v>0.61194600972192004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.77600974166292003</v>
+        <v>0.77253900257752095</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.1979807816821</v>
+        <v>1.2000598478690201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.12866304979897</v>
+        <v>1.12576352379128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.1357053726519299</v>
+        <v>1.1275584535280101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.96094661577652596</v>
+        <v>0.96788210653526696</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.89628243067287905</v>
+        <v>0.89865993432400904</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>0.37830484236369699</v>
+        <v>0.38014870536999801</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.05180853784293</v>
+        <v>-2.0579420190347402</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.1329807180720701</v>
+        <v>-3.1446163665745201</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.0643061854702101</v>
+        <v>-2.0738962213778098</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.87281805804168</v>
+        <v>-1.8833593457756601</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.3613253587449101</v>
+        <v>-2.3674475600322902</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +894,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.0738693745268701</v>
+        <v>-2.0764661693300202</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.6365851813126699</v>
+        <v>-3.64103080569725</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,7 +910,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.3860479908482404</v>
+        <v>-4.4009993987828198</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.7952376382415203</v>
+        <v>-4.8013273564731502</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.1055147472892299</v>
+        <v>-6.10871187886735</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.1684862698936804</v>
+        <v>-7.1693775568288602</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.3729410261697197</v>
+        <v>-6.3704268007370404</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.1997587327759298</v>
+        <v>-6.1944203741966</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.74967699234361</v>
+        <v>-4.7504790818101101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.5791553308010799</v>
+        <v>-3.5778383520852501</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.48850409521831</v>
+        <v>-3.48532877313361</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.7982462640249199</v>
+        <v>-2.7970217881883701</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +990,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.16598860375036</v>
+        <v>-3.1601020751068201</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.56814432472531</v>
+        <v>-2.5662266303151098</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.3269919467014701</v>
+        <v>-2.32606991427589</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,7 +1014,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.53910731663994</v>
+        <v>-2.5335313027347799</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.1835193246102498</v>
+        <v>-2.18242797921845</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-1.9559731318359199</v>
+        <v>-1.9587929477419099</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1038,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1216712861076998</v>
+        <v>-2.1181458825166399</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.3016421231642501</v>
+        <v>-2.2989947071294199</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.0374223736862001</v>
+        <v>-2.0425200285013601</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.92767563537355</v>
+        <v>-1.93165821685781</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.3070550678894299</v>
+        <v>-1.30994870872605</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.835269736173472</v>
+        <v>-0.84099838931293003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.47307034833934403</v>
+        <v>-0.476018015928803</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.17679332407405399</v>
+        <v>0.176687973939682</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1102,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>7.2480948939568399E-2</v>
+        <v>6.7499041122309797E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1110,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.29067474225290502</v>
+        <v>0.29403420346902898</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.230877265722818</v>
+        <v>0.231374061709855</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.53931129335063099</v>
+        <v>0.536025904681803</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.82005246403591403</v>
+        <v>0.82008015532029099</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.76478101645760499</v>
+        <v>0.76869313547891505</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.50969999166536895</v>
+        <v>0.50127454812574102</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.256153011427385</v>
+        <v>0.25286023555750597</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.51139469516210401</v>
+        <v>0.50859955736659601</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.61042245314473198</v>
+        <v>0.60567731098633004</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.74508369628980597</v>
+        <v>0.74952200691686999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.638545767631848</v>
+        <v>0.64382040610595503</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.50237733105910098</v>
+        <v>-0.49816390936788801</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.77714290853022605</v>
+        <v>-0.77539922514878701</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.523330988722159</v>
+        <v>-0.52571082827604898</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.23230425701437099</v>
+        <v>-0.22701224777396101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.44616095054275101</v>
+        <v>-0.44814687841683298</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1238,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.85237010172679595</v>
+        <v>-0.85070267983481396</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.45341560111268298</v>
+        <v>-0.44590112521169001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.74527650144660096</v>
+        <v>-0.73934396615559195</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-0.285946939766757</v>
+        <v>-0.28311426687185298</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>-8.4864915783133807E-2</v>
+        <v>-8.0004115668697001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.48919464846579602</v>
+        <v>0.49589425028164802</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.23095438295488399</v>
+        <v>0.233193184090075</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.19363077125508199</v>
+        <v>-0.19323016064387599</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1302,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.34246209651644899</v>
+        <v>0.34590777033520798</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1310,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.67264504066395503</v>
+        <v>0.67512335919344102</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.93402597752065797</v>
+        <v>0.93182059489260705</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2639861397321299</v>
+        <v>1.2643450831193399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1334,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.85612226693125903</v>
+        <v>0.85405964772569098</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.552819159498674</v>
+        <v>0.54458854212808805</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.76582316658695404</v>
+        <v>0.76563171287531395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.765685211702682</v>
+        <v>0.768541096917841</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.73148686046891098</v>
+        <v>0.73220332351768802</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.85914628837149298</v>
+        <v>0.85699340052005601</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.68942471423594198</v>
+        <v>0.68403325029669004</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.70747004303970396</v>
+        <v>0.70325205259957901</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76889263778172601</v>
+        <v>0.76511537565411303</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.76655575930375497</v>
+        <v>0.75607823293282195</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1.07407167367999</v>
+        <v>1.06530571697112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>0.90637976527172504</v>
+        <v>0.906458813489319</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.13709918067875</v>
+        <v>1.13270923526236</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.1426543389149599</v>
+        <v>1.1284497511192799</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.95308091516470606</v>
+        <v>0.94878667821132201</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.93887802613525895</v>
+        <v>0.93345236417461397</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.07158650059815</v>
+        <v>1.06749684070457</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.25020184785152</v>
+        <v>1.2529185068709301</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.5035733818735699</v>
+        <v>1.49854268430509</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.42282710259409</v>
+        <v>1.4165447881195199</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.5088963536634701</v>
+        <v>1.5060661546335099</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.5245209779521001</v>
+        <v>1.52085286844172</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.74405999631617</v>
+        <v>1.7469529049463099</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.90680304357846</v>
+        <v>1.90867811420421</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.7328045964162899</v>
+        <v>1.73006690820527</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>1.64735400937626</v>
+        <v>1.65767884971935</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,7 +1542,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>0.69212892078649502</v>
+        <v>0.69337434238614404</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.192765809033002</v>
+        <v>-0.19300740894402399</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.18709840818639201</v>
+        <v>-0.18182800264523499</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1566,7 +1566,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.51931004827519001</v>
+        <v>0.52055469655827302</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1574,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.43627779130579503</v>
+        <v>0.43709885899614298</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.78838549599473695</v>
+        <v>0.79373668352660198</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1590,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-8.15266346900545E-2</v>
+        <v>-8.2909055897206804E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-6.0642103571073601E-2</v>
+        <v>-6.2789272781571495E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.415694875023087</v>
+        <v>0.41570830973936002</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>0.56124338890022296</v>
+        <v>0.56219968062078995</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.0055519066166201</v>
+        <v>1.0105825135017701</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.0523586755949199</v>
+        <v>1.0564510478406901</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1638,7 +1638,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.10070324521456</v>
+        <v>1.10085081644045</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.46170861624439</v>
+        <v>1.46065403704256</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.4411108549081699</v>
+        <v>1.43989926740695</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.8680512343908</v>
+        <v>1.88093191007386</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.69335525085366</v>
+        <v>1.69398906858813</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.78860456141654</v>
+        <v>1.7825257497404901</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.2115903120202498</v>
+        <v>2.2144542625957202</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>2.0214468801019301</v>
+        <v>2.0112387708616</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.7643580414920901</v>
+        <v>1.7573174590145499</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.63230239313943</v>
+        <v>1.6282505481003899</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1718,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.8875761716421</v>
+        <v>1.8831389688134901</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.84692886059918</v>
+        <v>1.85250916099331</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.9948682600880301</v>
+        <v>1.98504761250426</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1742,7 +1742,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.78554132469007</v>
+        <v>1.7894833426393499</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.1238168205467201</v>
+        <v>2.1246572796446199</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.3684938804498199</v>
+        <v>1.38448763221994</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.31486953864414</v>
+        <v>-1.31224788640086</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.1622515613241502</v>
+        <v>-3.1598891673540099</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.2933975982313104</v>
+        <v>-4.2915303936445799</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.88163544986757</v>
+        <v>-3.8805676122146702</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.72332887568033</v>
+        <v>-3.7205032220702798</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.61858747956463</v>
+        <v>-3.6165237997809601</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-3.1163475733702901</v>
+        <v>-3.11213109506838</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.7372965652580299</v>
+        <v>-2.7322765177264299</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.84172299141636</v>
+        <v>-2.8374108913306699</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.4056852400707101</v>
+        <v>-2.3979793117645798</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-2.1456018102472298</v>
+        <v>-2.13219929323391</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.5846397529963101</v>
+        <v>-1.5776785725331299</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.6668517273439301</v>
+        <v>-1.6650540180269999</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.8676876672459799</v>
+        <v>-1.8620871929187</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-2.0141967721817098</v>
+        <v>-2.00861176820966</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.98601599486756</v>
+        <v>-1.9775527915753801</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.6209042119288499</v>
+        <v>-1.61178001087582</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.28959078133974</v>
+        <v>-1.29195254805872</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-1.0933717908524301</v>
+        <v>-1.0879443725309501</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.69820904011803597</v>
+        <v>-0.69979619839752905</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.18678773425553399</v>
+        <v>0.19924740390444601</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.41826622670739799</v>
+        <v>0.41837235565991299</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.24476248577858</v>
+        <v>1.2484352912435699</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1950,7 +1950,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.38276518922629</v>
+        <v>1.38666539425698</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -1958,7 +1958,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.05924970065512</v>
+        <v>1.05911724957206</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1966,7 +1966,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>0.97661220382840896</v>
+        <v>0.98564658547695105</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>0.91007165031926596</v>
+        <v>0.911343622054828</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.1560219617348999</v>
+        <v>1.16315474504409</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.87574371231975401</v>
+        <v>0.88202432508930295</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.00255615030087</v>
+        <v>1.0081050983597999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.2120116098886</v>
+        <v>1.2185825681034299</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.5914898557358701</v>
+        <v>1.61009265458676</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.4846207056914</v>
+        <v>1.50618516568704</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>1.80141596804575</v>
+        <v>1.7994195252023699</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2038,7 +2038,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.1527632509686301</v>
+        <v>2.1552686872253801</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.4018669238372801</v>
+        <v>2.4050064000428399</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2509485995928298</v>
+        <v>2.2781349219552101</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.2252019898275899</v>
+        <v>2.21467787572487</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2070,7 +2070,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.2571213799137602</v>
+        <v>2.2565889539384498</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2078,7 +2078,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.3626646246519298</v>
+        <v>2.3814233385050199</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2086,7 +2086,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.22844426139162</v>
+        <v>2.2388791035100799</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2094,7 +2094,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.1535213162000102</v>
+        <v>2.1417805128658198</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.2339004053871099</v>
+        <v>2.22725396197974</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.6867953763102301</v>
+        <v>2.6847995188791902</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.4810173089771199</v>
+        <v>2.4845861240534002</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2127,7 +2127,7 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>2.4206001204441598</v>
+        <v>2.38152682881667</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2136,7 +2136,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.37765043013008</v>
+        <v>-8.4508444087202594</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2145,7 +2145,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5827580443580298</v>
+        <v>-3.5462870978638001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-0.37384476438613301</v>
+        <v>-0.360550088708045</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2162,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.93733930106818497</v>
+        <v>0.92182995852785299</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>1.0329609268719699</v>
+        <v>1.0234476718679499</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135BFEC-AAC8-4363-B374-29633672712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0204E-DC42-4019-B3A7-3D58034EB051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="1116" windowWidth="28236" windowHeight="15492" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="24264" yWindow="792" windowWidth="28236" windowHeight="15492" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B218"/>
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2170,7 @@
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>1.0234476718679499</v>
+        <v>0.79737500739154299</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0204E-DC42-4019-B3A7-3D58034EB051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13D97A-EA0B-4739-A100-99BA8E4827D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24264" yWindow="792" windowWidth="28236" windowHeight="15492" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="17724" yWindow="1644" windowWidth="20148" windowHeight="13800" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,7 +2162,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.92182995852785299</v>
+        <v>0.92194551242252798</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>0.79737500739154299</v>
+        <v>0.75681114626748902</v>
       </c>
     </row>
   </sheetData>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A13D97A-EA0B-4739-A100-99BA8E4827D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA1144-24ED-45FA-ABB6-A9C252FF1B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17724" yWindow="1644" windowWidth="20148" windowHeight="13800" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="2304" yWindow="2124" windowWidth="21756" windowHeight="14556" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,769 +429,831 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7703049997464602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.7779009897570801</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.7799823467372402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.7476875235567899</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.5926743229459199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.54189063659729</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.6894508871969198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.64206561584475</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.9577137244324798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.8979859447910701</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>2.9925184229347499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.9340412007240002</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.14094147931565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.0892002674930401</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.1086757903912199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.0429379890223101</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.2695004067093199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.21697089243334</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.1673804646438901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.0920831835267601</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>3.4539343294307101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.38839529998334</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.6679688076523198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.6368384888113998</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.1117020994200701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.09901896071896</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1.1150423240359399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.08588781912371</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>-0.12595716768892801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.13995584110252399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.178965812917875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.22262538109623101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.52519562651420804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.54587104746617299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.470441883434769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.479381669904555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.21226904791706899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.220738675823418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>4.5711137407078398E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.4983159503275701E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.48759046504558401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.49671526709484898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.37518285815452102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.35953426738526401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>0.75665048312729699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.73211889503550498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.0410656646051599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.0163902596451102</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.46806228354288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4393279031213999</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.5569963620579701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4660520126617</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.5517145960449499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4933836552670599</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.4338430723997302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.3934113202352498</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.2399532076544002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.1555352699375701</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1.7842931708326799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.7206149770349699</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-0.123119599661536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.16558642523019099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.0296453832888499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.0677620253221201</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1035607588011596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-4.1480385935150501</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.4069160647229801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.46343325772022</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1295824686918499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.1639651121371202</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.7722789537193901</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.8015204370530999</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.1417123595646999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.15160491091269</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.2887609936319002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.3013256470969301</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5339867194499699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.5453349981695399</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1116706648169901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.1190044196103499</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.43230191418992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.4437612382109399</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.80031303275759402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.81112553770089602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.299993373474783</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.31688266835053802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>8.5973105183612106E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.22192350674622E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.61194600972192004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.56682230724682803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.77253900257752095</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71189864286969096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.2000598478690201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.11538526655042</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.12576352379128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.00656350021555</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.1275584535280101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.02414669985247</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.96788210653526696</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.851138205508151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.89865993432400904</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.752694866754688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>0.38014870536999801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.20793679829005399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.0579420190347402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.15954578187401</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.1446163665745201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.2725849457595699</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.0738962213778098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.23810446591246</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-1.8833593457756601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.0273929223640201</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.3674475600322902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.52674263062808</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.0764661693300202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.2270727103718202</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.64103080569725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.7310768966212899</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.4009993987828198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-4.5013941922878304</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.8013273564731502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-4.8941243908180097</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.10871187886735</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-6.1826952326277196</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.1693775568288602</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-7.2331915462574603</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.3704268007370404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-6.4236294816805604</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.1944203741966</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-6.28162983954544</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.7504790818101101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-4.8068719751351603</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.5778383520852501</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.6065179140738799</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.48532877313361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.5338101107187199</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.7970217881883701</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.8389558108188102</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.1601020751068201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.2278662386820298</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.5662266303151098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.5813978159362501</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.32606991427589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.3298268543332701</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.5335313027347799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.5197990458295498</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.18242797921845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.1565236266669499</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-1.9587929477419099</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9662400040681001</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1181458825166399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.1444247234400202</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.2989947071294199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.3373840009334201</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.0425200285013601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.0515871786893798</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.93165821685781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9660842957069999</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.30994870872605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.3361265114544401</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.84099838931293003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.84830661174488697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.476018015928803</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.47052443684908501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.176687973939682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.214629888889628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>6.7499041122309797E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.4796341889070703E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.29403420346902898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.30226571910181299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.231374061709855</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.21256355187717599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.536025904681803</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.48287666169135601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.82008015532029099</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.74291476278560697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.76869313547891505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.68588770987412195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.50127454812574102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.42084303140306201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.25286023555750597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.176407563434888</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.50859955736659601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.44701369786219702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.60567731098633004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.56843440586584804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.74952200691686999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.76080028470433303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.64382040610595503</v>
+        <v>0.68515453967150597</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1261,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.49816390936788801</v>
+        <v>-0.46492741408670202</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1269,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.77539922514878701</v>
+        <v>-0.73052097038234198</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1277,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.52571082827604898</v>
+        <v>-0.463259849985309</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1285,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.22701224777396101</v>
+        <v>-0.116153497471516</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1293,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.44814687841683298</v>
+        <v>-0.31416453454923299</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1301,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.85070267983481396</v>
+        <v>-0.70761694368620698</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1309,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.44590112521169001</v>
+        <v>-0.29082372007789298</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1317,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.73934396615559195</v>
+        <v>-0.61133557390037296</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1325,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-0.28311426687185298</v>
+        <v>-0.152197459922154</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1333,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>-8.0004115668697001E-2</v>
+        <v>4.3241278513783697E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1341,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.49589425028164802</v>
+        <v>0.60947890887008704</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1349,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.233193184090075</v>
+        <v>0.30693798369270098</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1357,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.19323016064387599</v>
+        <v>-0.13424151106346</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1365,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.34590777033520798</v>
+        <v>0.40472470170656</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1373,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.67512335919344102</v>
+        <v>0.72777540066526503</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,860 +1381,944 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.93182059489260705</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.94157868993118798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2643450831193399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2764474777994901</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.85405964772569098</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.83569044042974805</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.54458854212808805</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.52150813690181597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.76563171287531395</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.74138372719914103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.768541096917841</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.75316559068712197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.73220332351768802</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.72181126741701596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.85699340052005601</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.84406590385857105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.68403325029669004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.66955879348331604</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.70325205259957901</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.67664018067772302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.76511537565411303</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.72224151692026295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.75607823293282195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.68891576503318197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1.06530571697112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0023662275165299</v>
+      </c>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>0.906458813489319</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.82944340027082397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.13270923526236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0513167264418499</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.1284497511192799</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0460572433100399</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.94878667821132201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85373266106740797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.93345236417461397</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.85294332175691601</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.06749684070457</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0018070716105301</v>
+      </c>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.2529185068709301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1998980479144099</v>
+      </c>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.49854268430509</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.42265848666587</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.4165447881195199</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.33258582577755</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.5060661546335099</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.4150130799242899</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.52085286844172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.42522897549477</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.7469529049463099</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.65575489621239</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.90867811420421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.87753532846722</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.73006690820527</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.7503706617207</v>
+      </c>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>1.65767884971935</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.7424595842161299</v>
+      </c>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>0.69337434238614404</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.79941984648879105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.19300740894402399</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.11930617553443899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-0.18182800264523499</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-8.9552343589105493E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.52055469655827302</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.62650998739928199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.43709885899614298</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.53920187106843998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.79373668352660198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.90827494577527801</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>-8.2909055897206804E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.3540516107978301E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>-6.2789272781571495E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.8800423731633102E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.41570830973936002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.52644969891682003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>0.56219968062078995</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.67241293656850099</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.0105825135017701</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1246913191583801</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.0564510478406901</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1407693694903001</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.10085081644045</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1380261948095201</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.46065403704256</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5094005895740299</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.43989926740695</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.4433070019337999</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.88093191007386</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.88686014710298</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.69398906858813</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.66865780469025</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.7825257497404901</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.7442460176792001</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.2144542625957202</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.1883550664598199</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>2.0112387708616</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.96231448327131</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.7573174590145499</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.68537702349951</v>
+      </c>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.6282505481003899</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5524398694214001</v>
+      </c>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.8831389688134901</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8276944627930101</v>
+      </c>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.85250916099331</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8286177119493101</v>
+      </c>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.98504761250426</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.9991078144102801</v>
+      </c>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.7894833426393499</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.86979661864788</v>
+      </c>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.1246572796446199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2476177582507799</v>
+      </c>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.38448763221994</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.52968476777482</v>
+      </c>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.31224788640086</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.1769400830739301</v>
+      </c>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.1598891673540099</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.0612769426630599</v>
+      </c>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.2915303936445799</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-4.1933615465082203</v>
+      </c>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.8805676122146702</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.78216390875654</v>
+      </c>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.7205032220702798</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.6155125421800198</v>
+      </c>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.6165237997809601</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.4996492212409298</v>
+      </c>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-3.11213109506838</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.97912985680213</v>
+      </c>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.7322765177264299</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.6233387658062899</v>
+      </c>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.8374108913306699</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.7256413828414199</v>
+      </c>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.3979793117645798</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2.2565067726608898</v>
+      </c>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-2.13219929323391</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9993489583908</v>
+      </c>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.5776785725331299</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.4532438511658801</v>
+      </c>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.6650540180269999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.58694869750838</v>
+      </c>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.8620871929187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.7925351519082799</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-2.00861176820966</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9616948187468199</v>
+      </c>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.9775527915753801</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.9530741822000399</v>
+      </c>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.61178001087582</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.56663766139605</v>
+      </c>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.29195254805872</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.2527819635469799</v>
+      </c>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-1.0879443725309501</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1.0176241322176101</v>
+      </c>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.69979619839752905</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.59357647691804505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.19924740390444601</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.328040219799486</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.41837235565991299</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.56060378135760502</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.2484352912435699</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.39664791112732</v>
+      </c>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.38666539425698</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5265075624748301</v>
+      </c>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.05911724957206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1606453816558799</v>
+      </c>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>0.98564658547695105</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.07381401347177</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>0.911343622054828</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.98636137238576904</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.16315474504409</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.23124668261991</v>
+      </c>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.88202432508930295</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.93116149489531597</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.0081050983597999</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.0468558332040101</v>
+      </c>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.2185825681034299</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2354735463940401</v>
+      </c>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.61009265458676</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.6435612180702299</v>
+      </c>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.50618516568704</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.52751922504981</v>
+      </c>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>1.7994195252023699</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8378175061052999</v>
+      </c>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.1552686872253801</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.1791943245007301</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.4050064000428399</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4252439937818799</v>
+      </c>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.2781349219552101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.27908151805849</v>
+      </c>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.21467787572487</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.1956484036008699</v>
+      </c>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.2565889539384498</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2355449780475198</v>
+      </c>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.3814233385050199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.3518980619908101</v>
+      </c>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.2388791035100799</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.2180700196935601</v>
+      </c>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.1417805128658198</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.0825408470219098</v>
+      </c>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.22725396197974</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.1736130935539899</v>
+      </c>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.6847995188791902</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.6442204762040298</v>
+      </c>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.4845861240534002</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4322387430493002</v>
+      </c>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>A212+0.25</f>
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>2.38152682881667</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.4050723250322199</v>
+      </c>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" ref="A214:A216" si="0">A213+0.25</f>
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.4508444087202594</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-8.5985618014222105</v>
+      </c>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="0"/>
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.5462870978638001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3.61815249493104</v>
+      </c>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="0"/>
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-0.360550088708045</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.35380485591280902</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.92194551242252798</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.953172960966708</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>0.75681114626748902</v>
-      </c>
+        <v>0.77014763558655996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>2021.5</v>
+      </c>
+      <c r="B219">
+        <v>1.6403720100519801</v>
+      </c>
+      <c r="C219" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tino\OneDrive\Desktop\outputgapnow.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA1144-24ED-45FA-ABB6-A9C252FF1B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BF781-EA91-48E0-B89B-CF68B12DFAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2124" windowWidth="21756" windowHeight="14556" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
+    <workbookView xWindow="33732" yWindow="792" windowWidth="22704" windowHeight="14940" xr2:uid="{622CE5CC-DC73-4BBB-A134-DBFCA4FF5114}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EE1CC-4583-4610-ADA0-81298CBC28AF}">
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>1967.25</v>
       </c>
       <c r="B2">
-        <v>2.7779009897570801</v>
+        <v>2.7554503070372798</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -448,7 +448,7 @@
         <v>1967.5</v>
       </c>
       <c r="B3">
-        <v>2.7476875235567899</v>
+        <v>2.7319828953337599</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -457,7 +457,7 @@
         <v>1967.75</v>
       </c>
       <c r="B4">
-        <v>2.54189063659729</v>
+        <v>2.53088081836641</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -466,7 +466,7 @@
         <v>1968</v>
       </c>
       <c r="B5">
-        <v>2.64206561584475</v>
+        <v>2.6296044397609499</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -475,7 +475,7 @@
         <v>1968.25</v>
       </c>
       <c r="B6">
-        <v>2.8979859447910701</v>
+        <v>2.8859204391993698</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -484,7 +484,7 @@
         <v>1968.5</v>
       </c>
       <c r="B7">
-        <v>2.9340412007240002</v>
+        <v>2.9233980482950699</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -493,7 +493,7 @@
         <v>1968.75</v>
       </c>
       <c r="B8">
-        <v>3.0892002674930401</v>
+        <v>3.0759395837947099</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -502,7 +502,7 @@
         <v>1969</v>
       </c>
       <c r="B9">
-        <v>3.0429379890223101</v>
+        <v>3.0315354428182002</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -511,7 +511,7 @@
         <v>1969.25</v>
       </c>
       <c r="B10">
-        <v>3.21697089243334</v>
+        <v>3.2071890761796999</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -520,7 +520,7 @@
         <v>1969.5</v>
       </c>
       <c r="B11">
-        <v>3.0920831835267601</v>
+        <v>3.0875205919947701</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -529,7 +529,7 @@
         <v>1969.75</v>
       </c>
       <c r="B12">
-        <v>3.38839529998334</v>
+        <v>3.3865142989502099</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -538,7 +538,7 @@
         <v>1970</v>
       </c>
       <c r="B13">
-        <v>2.6368384888113998</v>
+        <v>2.6359234749063298</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -547,7 +547,7 @@
         <v>1970.25</v>
       </c>
       <c r="B14">
-        <v>2.09901896071896</v>
+        <v>2.1057824311614199</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -556,7 +556,7 @@
         <v>1970.5</v>
       </c>
       <c r="B15">
-        <v>1.08588781912371</v>
+        <v>1.0901521951634401</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -565,7 +565,7 @@
         <v>1970.75</v>
       </c>
       <c r="B16">
-        <v>-0.13995584110252399</v>
+        <v>-0.135643174983646</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>1971</v>
       </c>
       <c r="B17">
-        <v>0.22262538109623101</v>
+        <v>0.22319679104880799</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>1971.25</v>
       </c>
       <c r="B18">
-        <v>0.54587104746617299</v>
+        <v>0.54692000563263399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>1971.5</v>
       </c>
       <c r="B19">
-        <v>0.479381669904555</v>
+        <v>0.48172384782516597</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>1971.75</v>
       </c>
       <c r="B20">
-        <v>0.220738675823418</v>
+        <v>0.22076653616345299</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,7 +605,7 @@
         <v>1972</v>
       </c>
       <c r="B21">
-        <v>4.4983159503275701E-2</v>
+        <v>4.23034484832829E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
         <v>1972.25</v>
       </c>
       <c r="B22">
-        <v>0.49671526709484898</v>
+        <v>0.493370523614578</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>1972.5</v>
       </c>
       <c r="B23">
-        <v>0.35953426738526401</v>
+        <v>0.35535169589353499</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>1972.75</v>
       </c>
       <c r="B24">
-        <v>0.73211889503550498</v>
+        <v>0.72817770552553496</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>2.0163902596451102</v>
+        <v>2.0158409212442301</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -646,7 +646,7 @@
         <v>1973.25</v>
       </c>
       <c r="B26">
-        <v>2.4393279031213999</v>
+        <v>2.4450022831370002</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -655,7 +655,7 @@
         <v>1973.5</v>
       </c>
       <c r="B27">
-        <v>2.4660520126617</v>
+        <v>2.4751632747114201</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -664,7 +664,7 @@
         <v>1973.75</v>
       </c>
       <c r="B28">
-        <v>2.4933836552670599</v>
+        <v>2.5014801953025398</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -673,7 +673,7 @@
         <v>1974</v>
       </c>
       <c r="B29">
-        <v>2.3934113202352498</v>
+        <v>2.4072604650304399</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -682,7 +682,7 @@
         <v>1974.25</v>
       </c>
       <c r="B30">
-        <v>2.1555352699375701</v>
+        <v>2.1754608144220402</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -691,7 +691,7 @@
         <v>1974.5</v>
       </c>
       <c r="B31">
-        <v>1.7206149770349699</v>
+        <v>1.7445322815642801</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -700,7 +700,7 @@
         <v>1974.75</v>
       </c>
       <c r="B32">
-        <v>-0.16558642523019099</v>
+        <v>-0.14399151996146201</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>1975</v>
       </c>
       <c r="B33">
-        <v>-3.0677620253221201</v>
+        <v>-3.0428057892536202</v>
       </c>
       <c r="C33" s="1"/>
     </row>
@@ -717,7 +717,7 @@
         <v>1975.25</v>
       </c>
       <c r="B34">
-        <v>-4.1480385935150501</v>
+        <v>-4.1298004768116403</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -726,7 +726,7 @@
         <v>1975.5</v>
       </c>
       <c r="B35">
-        <v>-3.46343325772022</v>
+        <v>-3.4506245671797098</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -735,7 +735,7 @@
         <v>1975.75</v>
       </c>
       <c r="B36">
-        <v>-3.1639651121371202</v>
+        <v>-3.1540037830386201</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -744,7 +744,7 @@
         <v>1976</v>
       </c>
       <c r="B37">
-        <v>-2.8015204370530999</v>
+        <v>-2.80190876455814</v>
       </c>
       <c r="C37" s="1"/>
     </row>
@@ -753,7 +753,7 @@
         <v>1976.25</v>
       </c>
       <c r="B38">
-        <v>-2.15160491091269</v>
+        <v>-2.1494292024423101</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -762,7 +762,7 @@
         <v>1976.5</v>
       </c>
       <c r="B39">
-        <v>-2.3013256470969301</v>
+        <v>-2.29369371142975</v>
       </c>
       <c r="C39" s="1"/>
     </row>
@@ -771,7 +771,7 @@
         <v>1976.75</v>
       </c>
       <c r="B40">
-        <v>-2.5453349981695399</v>
+        <v>-2.53711625425312</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -780,7 +780,7 @@
         <v>1977</v>
       </c>
       <c r="B41">
-        <v>-2.1190044196103499</v>
+        <v>-2.1117769011316301</v>
       </c>
       <c r="C41" s="1"/>
     </row>
@@ -789,7 +789,7 @@
         <v>1977.25</v>
       </c>
       <c r="B42">
-        <v>-1.4437612382109399</v>
+        <v>-1.4376653908366199</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -798,7 +798,7 @@
         <v>1977.5</v>
       </c>
       <c r="B43">
-        <v>-0.81112553770089602</v>
+        <v>-0.80545875374525799</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>1977.75</v>
       </c>
       <c r="B44">
-        <v>-0.31688266835053802</v>
+        <v>-0.30863447304913</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>1978</v>
       </c>
       <c r="B45">
-        <v>6.22192350674622E-2</v>
+        <v>7.1981994069281199E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>1978.25</v>
       </c>
       <c r="B46">
-        <v>0.56682230724682803</v>
+        <v>0.57563977708594605</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>1978.5</v>
       </c>
       <c r="B47">
-        <v>0.71189864286969096</v>
+        <v>0.72248649822463895</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>1978.75</v>
       </c>
       <c r="B48">
-        <v>1.11538526655042</v>
+        <v>1.12972613765587</v>
       </c>
       <c r="C48" s="1"/>
     </row>
@@ -847,7 +847,7 @@
         <v>1979</v>
       </c>
       <c r="B49">
-        <v>1.00656350021555</v>
+        <v>1.02734806051699</v>
       </c>
       <c r="C49" s="1"/>
     </row>
@@ -856,7 +856,7 @@
         <v>1979.25</v>
       </c>
       <c r="B50">
-        <v>1.02414669985247</v>
+        <v>1.0410865038432899</v>
       </c>
       <c r="C50" s="1"/>
     </row>
@@ -865,7 +865,7 @@
         <v>1979.5</v>
       </c>
       <c r="B51">
-        <v>0.851138205508151</v>
+        <v>0.870244787225949</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>1979.75</v>
       </c>
       <c r="B52">
-        <v>0.752694866754688</v>
+        <v>0.776485436054553</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>1980</v>
       </c>
       <c r="B53">
-        <v>0.20793679829005399</v>
+        <v>0.234401769556603</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>1980.25</v>
       </c>
       <c r="B54">
-        <v>-2.15954578187401</v>
+        <v>-2.1408197637859501</v>
       </c>
       <c r="C54" s="1"/>
     </row>
@@ -898,7 +898,7 @@
         <v>1980.5</v>
       </c>
       <c r="B55">
-        <v>-3.2725849457595699</v>
+        <v>-3.25688636093152</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -907,7 +907,7 @@
         <v>1980.75</v>
       </c>
       <c r="B56">
-        <v>-2.23810446591246</v>
+        <v>-2.2214261441472201</v>
       </c>
       <c r="C56" s="1"/>
     </row>
@@ -916,7 +916,7 @@
         <v>1981</v>
       </c>
       <c r="B57">
-        <v>-2.0273929223640201</v>
+        <v>-2.0142771936423598</v>
       </c>
       <c r="C57" s="1"/>
     </row>
@@ -925,7 +925,7 @@
         <v>1981.25</v>
       </c>
       <c r="B58">
-        <v>-2.52674263062808</v>
+        <v>-2.5100212045779302</v>
       </c>
       <c r="C58" s="1"/>
     </row>
@@ -934,7 +934,7 @@
         <v>1981.5</v>
       </c>
       <c r="B59">
-        <v>-2.2270727103718202</v>
+        <v>-2.2124136735450399</v>
       </c>
       <c r="C59" s="1"/>
     </row>
@@ -943,7 +943,7 @@
         <v>1981.75</v>
       </c>
       <c r="B60">
-        <v>-3.7310768966212899</v>
+        <v>-3.7146310062238599</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -952,7 +952,7 @@
         <v>1982</v>
       </c>
       <c r="B61">
-        <v>-4.5013941922878304</v>
+        <v>-4.4816963761684496</v>
       </c>
       <c r="C61" s="1"/>
     </row>
@@ -961,7 +961,7 @@
         <v>1982.25</v>
       </c>
       <c r="B62">
-        <v>-4.8941243908180097</v>
+        <v>-4.8736732901856801</v>
       </c>
       <c r="C62" s="1"/>
     </row>
@@ -970,7 +970,7 @@
         <v>1982.5</v>
       </c>
       <c r="B63">
-        <v>-6.1826952326277196</v>
+        <v>-6.1663734762137796</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -979,7 +979,7 @@
         <v>1982.75</v>
       </c>
       <c r="B64">
-        <v>-7.2331915462574603</v>
+        <v>-7.2219758170694002</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -988,7 +988,7 @@
         <v>1983</v>
       </c>
       <c r="B65">
-        <v>-6.4236294816805604</v>
+        <v>-6.41375263021071</v>
       </c>
       <c r="C65" s="1"/>
     </row>
@@ -997,7 +997,7 @@
         <v>1983.25</v>
       </c>
       <c r="B66">
-        <v>-6.28162983954544</v>
+        <v>-6.27341398829354</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -1006,7 +1006,7 @@
         <v>1983.5</v>
       </c>
       <c r="B67">
-        <v>-4.8068719751351603</v>
+        <v>-4.7997968590485902</v>
       </c>
       <c r="C67" s="1"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>1983.75</v>
       </c>
       <c r="B68">
-        <v>-3.6065179140738799</v>
+        <v>-3.6012983717631299</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -1024,7 +1024,7 @@
         <v>1984</v>
       </c>
       <c r="B69">
-        <v>-3.5338101107187199</v>
+        <v>-3.5376926913226501</v>
       </c>
       <c r="C69" s="1"/>
     </row>
@@ -1033,7 +1033,7 @@
         <v>1984.25</v>
       </c>
       <c r="B70">
-        <v>-2.8389558108188102</v>
+        <v>-2.8423050847877098</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -1042,7 +1042,7 @@
         <v>1984.5</v>
       </c>
       <c r="B71">
-        <v>-3.2278662386820298</v>
+        <v>-3.2300148664922701</v>
       </c>
       <c r="C71" s="1"/>
     </row>
@@ -1051,7 +1051,7 @@
         <v>1984.75</v>
       </c>
       <c r="B72">
-        <v>-2.5813978159362501</v>
+        <v>-2.58503593600707</v>
       </c>
       <c r="C72" s="1"/>
     </row>
@@ -1060,7 +1060,7 @@
         <v>1985</v>
       </c>
       <c r="B73">
-        <v>-2.3298268543332701</v>
+        <v>-2.3316803809480402</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -1069,7 +1069,7 @@
         <v>1985.25</v>
       </c>
       <c r="B74">
-        <v>-2.5197990458295498</v>
+        <v>-2.52238447581977</v>
       </c>
       <c r="C74" s="1"/>
     </row>
@@ -1078,7 +1078,7 @@
         <v>1985.5</v>
       </c>
       <c r="B75">
-        <v>-2.1565236266669499</v>
+        <v>-2.16055566119981</v>
       </c>
       <c r="C75" s="1"/>
     </row>
@@ -1087,7 +1087,7 @@
         <v>1985.75</v>
       </c>
       <c r="B76">
-        <v>-1.9662400040681001</v>
+        <v>-1.9688624571403399</v>
       </c>
       <c r="C76" s="1"/>
     </row>
@@ -1096,7 +1096,7 @@
         <v>1986</v>
       </c>
       <c r="B77">
-        <v>-2.1444247234400202</v>
+        <v>-2.1501382839539298</v>
       </c>
       <c r="C77" s="1"/>
     </row>
@@ -1105,7 +1105,7 @@
         <v>1986.25</v>
       </c>
       <c r="B78">
-        <v>-2.3373840009334201</v>
+        <v>-2.3403417594479099</v>
       </c>
       <c r="C78" s="1"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>1986.5</v>
       </c>
       <c r="B79">
-        <v>-2.0515871786893798</v>
+        <v>-2.05388504294103</v>
       </c>
       <c r="C79" s="1"/>
     </row>
@@ -1123,7 +1123,7 @@
         <v>1986.75</v>
       </c>
       <c r="B80">
-        <v>-1.9660842957069999</v>
+        <v>-1.9673045758563701</v>
       </c>
       <c r="C80" s="1"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>1987</v>
       </c>
       <c r="B81">
-        <v>-1.3361265114544401</v>
+        <v>-1.3410484642734299</v>
       </c>
       <c r="C81" s="1"/>
     </row>
@@ -1141,7 +1141,7 @@
         <v>1987.25</v>
       </c>
       <c r="B82">
-        <v>-0.84830661174488697</v>
+        <v>-0.85301173776253203</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>1987.5</v>
       </c>
       <c r="B83">
-        <v>-0.47052443684908501</v>
+        <v>-0.476241320748505</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>1987.75</v>
       </c>
       <c r="B84">
-        <v>0.214629888889628</v>
+        <v>0.210430703881825</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>1988</v>
       </c>
       <c r="B85">
-        <v>8.4796341889070703E-2</v>
+        <v>7.7877820802951803E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>1988.25</v>
       </c>
       <c r="B86">
-        <v>0.30226571910181299</v>
+        <v>0.296120448951531</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>1988.5</v>
       </c>
       <c r="B87">
-        <v>0.21256355187717599</v>
+        <v>0.20560272954672801</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1189,7 +1189,7 @@
         <v>1988.75</v>
       </c>
       <c r="B88">
-        <v>0.48287666169135601</v>
+        <v>0.47672965920115801</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>1989</v>
       </c>
       <c r="B89">
-        <v>0.74291476278560697</v>
+        <v>0.73824992941724499</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1205,7 +1205,7 @@
         <v>1989.25</v>
       </c>
       <c r="B90">
-        <v>0.68588770987412195</v>
+        <v>0.68280779570091299</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>1989.5</v>
       </c>
       <c r="B91">
-        <v>0.42084303140306201</v>
+        <v>0.41405664324873898</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>1989.75</v>
       </c>
       <c r="B92">
-        <v>0.176407563434888</v>
+        <v>0.17306719975600501</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>1990</v>
       </c>
       <c r="B93">
-        <v>0.44701369786219702</v>
+        <v>0.44407205316712201</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>1990.25</v>
       </c>
       <c r="B94">
-        <v>0.56843440586584804</v>
+        <v>0.56686844996913799</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>1990.5</v>
       </c>
       <c r="B95">
-        <v>0.76080028470433303</v>
+        <v>0.76677795011716998</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>1990.75</v>
       </c>
       <c r="B96">
-        <v>0.68515453967150597</v>
+        <v>0.69434627435156504</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>1991</v>
       </c>
       <c r="B97">
-        <v>-0.46492741408670202</v>
+        <v>-0.46057776323024102</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1269,7 @@
         <v>1991.25</v>
       </c>
       <c r="B98">
-        <v>-0.73052097038234198</v>
+        <v>-0.72422324458974996</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>1991.5</v>
       </c>
       <c r="B99">
-        <v>-0.463259849985309</v>
+        <v>-0.45753389448681703</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>1991.75</v>
       </c>
       <c r="B100">
-        <v>-0.116153497471516</v>
+        <v>-0.10823542695994599</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>1992</v>
       </c>
       <c r="B101">
-        <v>-0.31416453454923299</v>
+        <v>-0.303440538662203</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>1992.25</v>
       </c>
       <c r="B102">
-        <v>-0.70761694368620698</v>
+        <v>-0.69708412735065595</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>1992.5</v>
       </c>
       <c r="B103">
-        <v>-0.29082372007789298</v>
+        <v>-0.27871689478581302</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>1992.75</v>
       </c>
       <c r="B104">
-        <v>-0.61133557390037296</v>
+        <v>-0.60456795480172698</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>1993</v>
       </c>
       <c r="B105">
-        <v>-0.152197459922154</v>
+        <v>-0.147651576280006</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>1993.25</v>
       </c>
       <c r="B106">
-        <v>4.3241278513783697E-2</v>
+        <v>4.8996290183822601E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>1993.5</v>
       </c>
       <c r="B107">
-        <v>0.60947890887008704</v>
+        <v>0.61655390417181299</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>1993.75</v>
       </c>
       <c r="B108">
-        <v>0.30693798369270098</v>
+        <v>0.31285916360268601</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
         <v>1994</v>
       </c>
       <c r="B109">
-        <v>-0.13424151106346</v>
+        <v>-0.13182495275938499</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>1994.25</v>
       </c>
       <c r="B110">
-        <v>0.40472470170656</v>
+        <v>0.40433482103645602</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1373,7 @@
         <v>1994.5</v>
       </c>
       <c r="B111">
-        <v>0.72777540066526503</v>
+        <v>0.72764669744436195</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>1994.75</v>
       </c>
       <c r="B112">
-        <v>0.94157868993118798</v>
+        <v>0.93899659157943305</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>1995</v>
       </c>
       <c r="B113">
-        <v>1.2764474777994901</v>
+        <v>1.2747040578617199</v>
       </c>
       <c r="C113" s="1"/>
     </row>
@@ -1398,7 +1398,7 @@
         <v>1995.25</v>
       </c>
       <c r="B114">
-        <v>0.83569044042974805</v>
+        <v>0.83537376775535399</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>1995.5</v>
       </c>
       <c r="B115">
-        <v>0.52150813690181597</v>
+        <v>0.52014540322000702</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>1995.75</v>
       </c>
       <c r="B116">
-        <v>0.74138372719914103</v>
+        <v>0.73920358682089105</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>1996</v>
       </c>
       <c r="B117">
-        <v>0.75316559068712197</v>
+        <v>0.75136364273522604</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>1996.25</v>
       </c>
       <c r="B118">
-        <v>0.72181126741701596</v>
+        <v>0.71976543398195603</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>1996.5</v>
       </c>
       <c r="B119">
-        <v>0.84406590385857105</v>
+        <v>0.83822569672968905</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>1996.75</v>
       </c>
       <c r="B120">
-        <v>0.66955879348331604</v>
+        <v>0.66391758635913101</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>1997</v>
       </c>
       <c r="B121">
-        <v>0.67664018067772302</v>
+        <v>0.66958128979273102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>1997.25</v>
       </c>
       <c r="B122">
-        <v>0.72224151692026295</v>
+        <v>0.71130583835348205</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>1997.5</v>
       </c>
       <c r="B123">
-        <v>0.68891576503318197</v>
+        <v>0.67733230484363605</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
         <v>1997.75</v>
       </c>
       <c r="B124">
-        <v>1.0023662275165299</v>
+        <v>0.99089161600853803</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -1487,7 +1487,7 @@
         <v>1998</v>
       </c>
       <c r="B125">
-        <v>0.82944340027082397</v>
+        <v>0.81672120120048797</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>1998.25</v>
       </c>
       <c r="B126">
-        <v>1.0513167264418499</v>
+        <v>1.0373262591582699</v>
       </c>
       <c r="C126" s="1"/>
     </row>
@@ -1504,7 +1504,7 @@
         <v>1998.5</v>
       </c>
       <c r="B127">
-        <v>1.0460572433100399</v>
+        <v>1.03517227038745</v>
       </c>
       <c r="C127" s="1"/>
     </row>
@@ -1513,7 +1513,7 @@
         <v>1998.75</v>
       </c>
       <c r="B128">
-        <v>0.85373266106740797</v>
+        <v>0.840374861427717</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>1999</v>
       </c>
       <c r="B129">
-        <v>0.85294332175691601</v>
+        <v>0.83637251261206003</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
         <v>1999.25</v>
       </c>
       <c r="B130">
-        <v>1.0018070716105301</v>
+        <v>0.98339603697381595</v>
       </c>
       <c r="C130" s="1"/>
     </row>
@@ -1538,7 +1538,7 @@
         <v>1999.5</v>
       </c>
       <c r="B131">
-        <v>1.1998980479144099</v>
+        <v>1.1837313670321401</v>
       </c>
       <c r="C131" s="1"/>
     </row>
@@ -1547,7 +1547,7 @@
         <v>1999.75</v>
       </c>
       <c r="B132">
-        <v>1.42265848666587</v>
+        <v>1.40624905761579</v>
       </c>
       <c r="C132" s="1"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>2000</v>
       </c>
       <c r="B133">
-        <v>1.33258582577755</v>
+        <v>1.31747263645228</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -1565,7 +1565,7 @@
         <v>2000.25</v>
       </c>
       <c r="B134">
-        <v>1.4150130799242899</v>
+        <v>1.3994793901698701</v>
       </c>
       <c r="C134" s="1"/>
     </row>
@@ -1574,7 +1574,7 @@
         <v>2000.5</v>
       </c>
       <c r="B135">
-        <v>1.42522897549477</v>
+        <v>1.41220463955203</v>
       </c>
       <c r="C135" s="1"/>
     </row>
@@ -1583,7 +1583,7 @@
         <v>2000.75</v>
       </c>
       <c r="B136">
-        <v>1.65575489621239</v>
+        <v>1.6417334608904901</v>
       </c>
       <c r="C136" s="1"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>2001</v>
       </c>
       <c r="B137">
-        <v>1.87753532846722</v>
+        <v>1.86670412018346</v>
       </c>
       <c r="C137" s="1"/>
     </row>
@@ -1601,7 +1601,7 @@
         <v>2001.25</v>
       </c>
       <c r="B138">
-        <v>1.7503706617207</v>
+        <v>1.7391340022522299</v>
       </c>
       <c r="C138" s="1"/>
     </row>
@@ -1610,7 +1610,7 @@
         <v>2001.5</v>
       </c>
       <c r="B139">
-        <v>1.7424595842161299</v>
+        <v>1.736249837063</v>
       </c>
       <c r="C139" s="1"/>
     </row>
@@ -1619,7 +1619,7 @@
         <v>2001.75</v>
       </c>
       <c r="B140">
-        <v>0.79941984648879105</v>
+        <v>0.79342072794203999</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>2002</v>
       </c>
       <c r="B141">
-        <v>-0.11930617553443899</v>
+        <v>-0.128903762908017</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -1635,7 +1635,7 @@
         <v>2002.25</v>
       </c>
       <c r="B142">
-        <v>-8.9552343589105493E-2</v>
+        <v>-9.7873687447891405E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,7 +1643,7 @@
         <v>2002.5</v>
       </c>
       <c r="B143">
-        <v>0.62650998739928199</v>
+        <v>0.62066561599709602</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>2002.75</v>
       </c>
       <c r="B144">
-        <v>0.53920187106843998</v>
+        <v>0.53294987159000495</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
         <v>2003</v>
       </c>
       <c r="B145">
-        <v>0.90827494577527801</v>
+        <v>0.90753828846281703</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,7 +1667,7 @@
         <v>2003.25</v>
       </c>
       <c r="B146">
-        <v>2.3540516107978301E-3</v>
+        <v>-3.54907187848363E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -1675,7 +1675,7 @@
         <v>2003.5</v>
       </c>
       <c r="B147">
-        <v>3.8800423731633102E-2</v>
+        <v>3.4490113405882802E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>2003.75</v>
       </c>
       <c r="B148">
-        <v>0.52644969891682003</v>
+        <v>0.51610641105801502</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
         <v>2004</v>
       </c>
       <c r="B149">
-        <v>0.67241293656850099</v>
+        <v>0.66242728126384398</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -1699,7 +1699,7 @@
         <v>2004.25</v>
       </c>
       <c r="B150">
-        <v>1.1246913191583801</v>
+        <v>1.1170164721015201</v>
       </c>
       <c r="C150" s="1"/>
     </row>
@@ -1708,7 +1708,7 @@
         <v>2004.5</v>
       </c>
       <c r="B151">
-        <v>1.1407693694903001</v>
+        <v>1.13360773719413</v>
       </c>
       <c r="C151" s="1"/>
     </row>
@@ -1717,7 +1717,7 @@
         <v>2004.75</v>
       </c>
       <c r="B152">
-        <v>1.1380261948095201</v>
+        <v>1.1343627945493</v>
       </c>
       <c r="C152" s="1"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>2005</v>
       </c>
       <c r="B153">
-        <v>1.5094005895740299</v>
+        <v>1.5037147618536899</v>
       </c>
       <c r="C153" s="1"/>
     </row>
@@ -1735,7 +1735,7 @@
         <v>2005.25</v>
       </c>
       <c r="B154">
-        <v>1.4433070019337999</v>
+        <v>1.43762378263061</v>
       </c>
       <c r="C154" s="1"/>
     </row>
@@ -1744,7 +1744,7 @@
         <v>2005.5</v>
       </c>
       <c r="B155">
-        <v>1.88686014710298</v>
+        <v>1.8857766753324501</v>
       </c>
       <c r="C155" s="1"/>
     </row>
@@ -1753,7 +1753,7 @@
         <v>2005.75</v>
       </c>
       <c r="B156">
-        <v>1.66865780469025</v>
+        <v>1.66530769069493</v>
       </c>
       <c r="C156" s="1"/>
     </row>
@@ -1762,7 +1762,7 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <v>1.7442460176792001</v>
+        <v>1.7376159882808599</v>
       </c>
       <c r="C157" s="1"/>
     </row>
@@ -1771,7 +1771,7 @@
         <v>2006.25</v>
       </c>
       <c r="B158">
-        <v>2.1883550664598199</v>
+        <v>2.18373972392809</v>
       </c>
       <c r="C158" s="1"/>
     </row>
@@ -1780,7 +1780,7 @@
         <v>2006.5</v>
       </c>
       <c r="B159">
-        <v>1.96231448327131</v>
+        <v>1.95932880888503</v>
       </c>
       <c r="C159" s="1"/>
     </row>
@@ -1789,7 +1789,7 @@
         <v>2006.75</v>
       </c>
       <c r="B160">
-        <v>1.68537702349951</v>
+        <v>1.6770357410107499</v>
       </c>
       <c r="C160" s="1"/>
     </row>
@@ -1798,7 +1798,7 @@
         <v>2007</v>
       </c>
       <c r="B161">
-        <v>1.5524398694214001</v>
+        <v>1.5472372156200001</v>
       </c>
       <c r="C161" s="1"/>
     </row>
@@ -1807,7 +1807,7 @@
         <v>2007.25</v>
       </c>
       <c r="B162">
-        <v>1.8276944627930101</v>
+        <v>1.82296541725893</v>
       </c>
       <c r="C162" s="1"/>
     </row>
@@ -1816,7 +1816,7 @@
         <v>2007.5</v>
       </c>
       <c r="B163">
-        <v>1.8286177119493101</v>
+        <v>1.82468548707893</v>
       </c>
       <c r="C163" s="1"/>
     </row>
@@ -1825,7 +1825,7 @@
         <v>2007.75</v>
       </c>
       <c r="B164">
-        <v>1.9991078144102801</v>
+        <v>1.99813796305501</v>
       </c>
       <c r="C164" s="1"/>
     </row>
@@ -1834,7 +1834,7 @@
         <v>2008</v>
       </c>
       <c r="B165">
-        <v>1.86979661864788</v>
+        <v>1.8683550542703</v>
       </c>
       <c r="C165" s="1"/>
     </row>
@@ -1843,7 +1843,7 @@
         <v>2008.25</v>
       </c>
       <c r="B166">
-        <v>2.2476177582507799</v>
+        <v>2.25342816483893</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -1852,7 +1852,7 @@
         <v>2008.5</v>
       </c>
       <c r="B167">
-        <v>1.52968476777482</v>
+        <v>1.5394092790801399</v>
       </c>
       <c r="C167" s="1"/>
     </row>
@@ -1861,7 +1861,7 @@
         <v>2008.75</v>
       </c>
       <c r="B168">
-        <v>-1.1769400830739301</v>
+        <v>-1.1775271670662699</v>
       </c>
       <c r="C168" s="1"/>
     </row>
@@ -1870,7 +1870,7 @@
         <v>2009</v>
       </c>
       <c r="B169">
-        <v>-3.0612769426630599</v>
+        <v>-3.0549741950277398</v>
       </c>
       <c r="C169" s="1"/>
     </row>
@@ -1879,7 +1879,7 @@
         <v>2009.25</v>
       </c>
       <c r="B170">
-        <v>-4.1933615465082203</v>
+        <v>-4.1837331963809197</v>
       </c>
       <c r="C170" s="1"/>
     </row>
@@ -1888,7 +1888,7 @@
         <v>2009.5</v>
       </c>
       <c r="B171">
-        <v>-3.78216390875654</v>
+        <v>-3.7674488523835699</v>
       </c>
       <c r="C171" s="1"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>2009.75</v>
       </c>
       <c r="B172">
-        <v>-3.6155125421800198</v>
+        <v>-3.5951739081906302</v>
       </c>
       <c r="C172" s="1"/>
     </row>
@@ -1906,7 +1906,7 @@
         <v>2010</v>
       </c>
       <c r="B173">
-        <v>-3.4996492212409298</v>
+        <v>-3.4796895579753899</v>
       </c>
       <c r="C173" s="1"/>
     </row>
@@ -1915,7 +1915,7 @@
         <v>2010.25</v>
       </c>
       <c r="B174">
-        <v>-2.97912985680213</v>
+        <v>-2.95871590684215</v>
       </c>
       <c r="C174" s="1"/>
     </row>
@@ -1924,7 +1924,7 @@
         <v>2010.5</v>
       </c>
       <c r="B175">
-        <v>-2.6233387658062899</v>
+        <v>-2.60692734585585</v>
       </c>
       <c r="C175" s="1"/>
     </row>
@@ -1933,7 +1933,7 @@
         <v>2010.75</v>
       </c>
       <c r="B176">
-        <v>-2.7256413828414199</v>
+        <v>-2.7041685288113801</v>
       </c>
       <c r="C176" s="1"/>
     </row>
@@ -1942,7 +1942,7 @@
         <v>2011</v>
       </c>
       <c r="B177">
-        <v>-2.2565067726608898</v>
+        <v>-2.23649169936906</v>
       </c>
       <c r="C177" s="1"/>
     </row>
@@ -1951,7 +1951,7 @@
         <v>2011.25</v>
       </c>
       <c r="B178">
-        <v>-1.9993489583908</v>
+        <v>-1.97903988589024</v>
       </c>
       <c r="C178" s="1"/>
     </row>
@@ -1960,7 +1960,7 @@
         <v>2011.5</v>
       </c>
       <c r="B179">
-        <v>-1.4532438511658801</v>
+        <v>-1.4282359332258101</v>
       </c>
       <c r="C179" s="1"/>
     </row>
@@ -1969,7 +1969,7 @@
         <v>2011.75</v>
       </c>
       <c r="B180">
-        <v>-1.58694869750838</v>
+        <v>-1.5699427124182599</v>
       </c>
       <c r="C180" s="1"/>
     </row>
@@ -1978,7 +1978,7 @@
         <v>2012</v>
       </c>
       <c r="B181">
-        <v>-1.7925351519082799</v>
+        <v>-1.78180014381745</v>
       </c>
       <c r="C181" s="1"/>
     </row>
@@ -1987,7 +1987,7 @@
         <v>2012.25</v>
       </c>
       <c r="B182">
-        <v>-1.9616948187468199</v>
+        <v>-1.95064042624904</v>
       </c>
       <c r="C182" s="1"/>
     </row>
@@ -1996,7 +1996,7 @@
         <v>2012.5</v>
       </c>
       <c r="B183">
-        <v>-1.9530741822000399</v>
+        <v>-1.9418088729324301</v>
       </c>
       <c r="C183" s="1"/>
     </row>
@@ -2005,7 +2005,7 @@
         <v>2012.75</v>
       </c>
       <c r="B184">
-        <v>-1.56663766139605</v>
+        <v>-1.5568594024826801</v>
       </c>
       <c r="C184" s="1"/>
     </row>
@@ -2014,7 +2014,7 @@
         <v>2013</v>
       </c>
       <c r="B185">
-        <v>-1.2527819635469799</v>
+        <v>-1.24307430835392</v>
       </c>
       <c r="C185" s="1"/>
     </row>
@@ -2023,7 +2023,7 @@
         <v>2013.25</v>
       </c>
       <c r="B186">
-        <v>-1.0176241322176101</v>
+        <v>-1.0106941194761401</v>
       </c>
       <c r="C186" s="1"/>
     </row>
@@ -2032,7 +2032,7 @@
         <v>2013.5</v>
       </c>
       <c r="B187">
-        <v>-0.59357647691804505</v>
+        <v>-0.58984716563064099</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,7 +2040,7 @@
         <v>2013.75</v>
       </c>
       <c r="B188">
-        <v>0.328040219799486</v>
+        <v>0.33063387282210599</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,7 +2048,7 @@
         <v>2014</v>
       </c>
       <c r="B189">
-        <v>0.56060378135760502</v>
+        <v>0.56464021358568806</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2056,7 +2056,7 @@
         <v>2014.25</v>
       </c>
       <c r="B190">
-        <v>1.39664791112732</v>
+        <v>1.3980297535931601</v>
       </c>
       <c r="C190" s="1"/>
     </row>
@@ -2065,7 +2065,7 @@
         <v>2014.5</v>
       </c>
       <c r="B191">
-        <v>1.5265075624748301</v>
+        <v>1.5289696921298801</v>
       </c>
       <c r="C191" s="1"/>
     </row>
@@ -2074,7 +2074,7 @@
         <v>2014.75</v>
       </c>
       <c r="B192">
-        <v>1.1606453816558799</v>
+        <v>1.15455766345596</v>
       </c>
       <c r="C192" s="1"/>
     </row>
@@ -2083,7 +2083,7 @@
         <v>2015</v>
       </c>
       <c r="B193">
-        <v>1.07381401347177</v>
+        <v>1.0671862477055001</v>
       </c>
       <c r="C193" s="1"/>
     </row>
@@ -2092,7 +2092,7 @@
         <v>2015.25</v>
       </c>
       <c r="B194">
-        <v>0.98636137238576904</v>
+        <v>0.97722263483826</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,7 +2100,7 @@
         <v>2015.5</v>
       </c>
       <c r="B195">
-        <v>1.23124668261991</v>
+        <v>1.21966865992382</v>
       </c>
       <c r="C195" s="1"/>
     </row>
@@ -2109,7 +2109,7 @@
         <v>2015.75</v>
       </c>
       <c r="B196">
-        <v>0.93116149489531597</v>
+        <v>0.91566133469751498</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>2016</v>
       </c>
       <c r="B197">
-        <v>1.0468558332040101</v>
+        <v>1.06279615384524</v>
       </c>
       <c r="C197" s="1"/>
     </row>
@@ -2126,7 +2126,7 @@
         <v>2016.25</v>
       </c>
       <c r="B198">
-        <v>1.2354735463940401</v>
+        <v>1.1913344574681499</v>
       </c>
       <c r="C198" s="1"/>
     </row>
@@ -2135,7 +2135,7 @@
         <v>2016.5</v>
       </c>
       <c r="B199">
-        <v>1.6435612180702299</v>
+        <v>1.63194211887152</v>
       </c>
       <c r="C199" s="1"/>
     </row>
@@ -2144,7 +2144,7 @@
         <v>2016.75</v>
       </c>
       <c r="B200">
-        <v>1.52751922504981</v>
+        <v>1.5208216815770099</v>
       </c>
       <c r="C200" s="1"/>
     </row>
@@ -2153,7 +2153,7 @@
         <v>2017</v>
       </c>
       <c r="B201">
-        <v>1.8378175061052999</v>
+        <v>1.8243346950447901</v>
       </c>
       <c r="C201" s="1"/>
     </row>
@@ -2162,7 +2162,7 @@
         <v>2017.25</v>
       </c>
       <c r="B202">
-        <v>2.1791943245007301</v>
+        <v>2.1337242317630598</v>
       </c>
       <c r="C202" s="1"/>
     </row>
@@ -2171,7 +2171,7 @@
         <v>2017.5</v>
       </c>
       <c r="B203">
-        <v>2.4252439937818799</v>
+        <v>2.4177215246997501</v>
       </c>
       <c r="C203" s="1"/>
     </row>
@@ -2180,7 +2180,7 @@
         <v>2017.75</v>
       </c>
       <c r="B204">
-        <v>2.27908151805849</v>
+        <v>2.2690899277133498</v>
       </c>
       <c r="C204" s="1"/>
     </row>
@@ -2189,7 +2189,7 @@
         <v>2018</v>
       </c>
       <c r="B205">
-        <v>2.1956484036008699</v>
+        <v>2.2150286853754402</v>
       </c>
       <c r="C205" s="1"/>
     </row>
@@ -2198,7 +2198,7 @@
         <v>2018.25</v>
       </c>
       <c r="B206">
-        <v>2.2355449780475198</v>
+        <v>2.21752265371817</v>
       </c>
       <c r="C206" s="1"/>
     </row>
@@ -2207,7 +2207,7 @@
         <v>2018.5</v>
       </c>
       <c r="B207">
-        <v>2.3518980619908101</v>
+        <v>2.3302905060202699</v>
       </c>
       <c r="C207" s="1"/>
     </row>
@@ -2216,7 +2216,7 @@
         <v>2018.75</v>
       </c>
       <c r="B208">
-        <v>2.2180700196935601</v>
+        <v>2.1653581993903002</v>
       </c>
       <c r="C208" s="1"/>
     </row>
@@ -2225,7 +2225,7 @@
         <v>2019</v>
       </c>
       <c r="B209">
-        <v>2.0825408470219098</v>
+        <v>2.0629681676862699</v>
       </c>
       <c r="C209" s="1"/>
     </row>
@@ -2234,7 +2234,7 @@
         <v>2019.25</v>
       </c>
       <c r="B210">
-        <v>2.1736130935539899</v>
+        <v>2.1518449478263602</v>
       </c>
       <c r="C210" s="1"/>
     </row>
@@ -2243,7 +2243,7 @@
         <v>2019.5</v>
       </c>
       <c r="B211">
-        <v>2.6442204762040298</v>
+        <v>2.6654142763257802</v>
       </c>
       <c r="C211" s="1"/>
     </row>
@@ -2252,7 +2252,7 @@
         <v>2019.75</v>
       </c>
       <c r="B212">
-        <v>2.4322387430493002</v>
+        <v>2.3191320839085501</v>
       </c>
       <c r="C212" s="1"/>
     </row>
@@ -2262,7 +2262,7 @@
         <v>2020</v>
       </c>
       <c r="B213">
-        <v>2.4050723250322199</v>
+        <v>2.4051886300869598</v>
       </c>
       <c r="C213" s="1"/>
     </row>
@@ -2272,7 +2272,7 @@
         <v>2020.25</v>
       </c>
       <c r="B214">
-        <v>-8.5985618014222105</v>
+        <v>-8.5591813747839094</v>
       </c>
       <c r="C214" s="1"/>
     </row>
@@ -2282,7 +2282,7 @@
         <v>2020.5</v>
       </c>
       <c r="B215">
-        <v>-3.61815249493104</v>
+        <v>-3.5513514985866599</v>
       </c>
       <c r="C215" s="1"/>
     </row>
@@ -2292,7 +2292,7 @@
         <v>2020.75</v>
       </c>
       <c r="B216">
-        <v>-0.35380485591280902</v>
+        <v>-0.34845141673672803</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>2021</v>
       </c>
       <c r="B217">
-        <v>0.953172960966708</v>
+        <v>0.94534528760403802</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2308,7 +2308,7 @@
         <v>2021.25</v>
       </c>
       <c r="B218">
-        <v>0.77014763558655996</v>
+        <v>0.78871205350297102</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>2021.5</v>
       </c>
       <c r="B219">
-        <v>1.6403720100519801</v>
+        <v>2.3288440888281001</v>
       </c>
       <c r="C219" s="1"/>
     </row>
